--- a/INTLINE/data/134/DEUSTATIS/old/Persons employed and turnover of local units in manufacturing.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/Persons employed and turnover of local units in manufacturing.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="68">
   <si>
     <t>Persons employed and turnover of local units in
 manufacturing: Germany, months, economic activities
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
   <si>
     <t>January</t>
@@ -214,7 +217,7 @@
     <t>in branch assignments.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 10:50:31</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:26:10</t>
   </si>
 </sst>
 </file>
@@ -777,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="847">
+  <cellXfs count="895">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -1653,6 +1656,54 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -2477,6 +2528,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -3313,6 +3412,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -3323,6 +3470,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -4157,7 +4352,10 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="193" max="193" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
-    <col min="205" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="208" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="207" max="207" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
+    <col min="206" max="206" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
+    <col min="205" max="205" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="204" max="204" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="203" max="203" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="202" max="202" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
@@ -4542,6 +4740,9 @@
     <col min="202" max="202" width="11.09375" customWidth="true"/>
     <col min="203" max="203" width="11.09375" customWidth="true"/>
     <col min="204" max="204" width="11.09375" customWidth="true"/>
+    <col min="205" max="205" width="11.09375" customWidth="true"/>
+    <col min="206" max="206" width="11.09375" customWidth="true"/>
+    <col min="207" max="207" width="11.09375" customWidth="true"/>
     <col min="1" max="1" width="31.50390625" style="7" customWidth="true"/>
   </cols>
   <sheetData>
@@ -4566,870 +4767,920 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="435">
+      <c r="A5" t="s" s="459">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="436">
+      <c r="B5" t="s" s="460">
         <v>5</v>
       </c>
-      <c r="C5" t="s" s="437">
+      <c r="C5" t="s" s="461">
         <v>6</v>
       </c>
-      <c r="D5" s="438"/>
-      <c r="E5" s="439"/>
-      <c r="F5" s="440"/>
-      <c r="G5" s="441"/>
-      <c r="H5" s="442"/>
-      <c r="I5" s="443"/>
-      <c r="J5" s="444"/>
-      <c r="K5" s="445"/>
-      <c r="L5" s="446"/>
-      <c r="M5" s="447"/>
-      <c r="N5" s="448"/>
-      <c r="O5" t="s" s="449">
+      <c r="D5" s="462"/>
+      <c r="E5" s="463"/>
+      <c r="F5" s="464"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="466"/>
+      <c r="I5" s="467"/>
+      <c r="J5" s="468"/>
+      <c r="K5" s="469"/>
+      <c r="L5" s="470"/>
+      <c r="M5" s="471"/>
+      <c r="N5" s="472"/>
+      <c r="O5" t="s" s="473">
         <v>7</v>
       </c>
-      <c r="P5" s="450"/>
-      <c r="Q5" s="451"/>
-      <c r="R5" s="452"/>
-      <c r="S5" s="453"/>
-      <c r="T5" s="454"/>
-      <c r="U5" s="455"/>
-      <c r="V5" s="456"/>
-      <c r="W5" s="457"/>
-      <c r="X5" s="458"/>
-      <c r="Y5" s="459"/>
-      <c r="Z5" s="460"/>
-      <c r="AA5" t="s" s="461">
+      <c r="P5" s="474"/>
+      <c r="Q5" s="475"/>
+      <c r="R5" s="476"/>
+      <c r="S5" s="477"/>
+      <c r="T5" s="478"/>
+      <c r="U5" s="479"/>
+      <c r="V5" s="480"/>
+      <c r="W5" s="481"/>
+      <c r="X5" s="482"/>
+      <c r="Y5" s="483"/>
+      <c r="Z5" s="484"/>
+      <c r="AA5" t="s" s="485">
         <v>8</v>
       </c>
-      <c r="AB5" s="462"/>
-      <c r="AC5" s="463"/>
-      <c r="AD5" s="464"/>
-      <c r="AE5" s="465"/>
-      <c r="AF5" s="466"/>
-      <c r="AG5" s="467"/>
-      <c r="AH5" s="468"/>
-      <c r="AI5" s="469"/>
-      <c r="AJ5" s="470"/>
-      <c r="AK5" s="471"/>
-      <c r="AL5" s="472"/>
-      <c r="AM5" t="s" s="473">
+      <c r="AB5" s="486"/>
+      <c r="AC5" s="487"/>
+      <c r="AD5" s="488"/>
+      <c r="AE5" s="489"/>
+      <c r="AF5" s="490"/>
+      <c r="AG5" s="491"/>
+      <c r="AH5" s="492"/>
+      <c r="AI5" s="493"/>
+      <c r="AJ5" s="494"/>
+      <c r="AK5" s="495"/>
+      <c r="AL5" s="496"/>
+      <c r="AM5" t="s" s="497">
         <v>9</v>
       </c>
-      <c r="AN5" s="474"/>
-      <c r="AO5" s="475"/>
-      <c r="AP5" s="476"/>
-      <c r="AQ5" s="477"/>
-      <c r="AR5" s="478"/>
-      <c r="AS5" s="479"/>
-      <c r="AT5" s="480"/>
-      <c r="AU5" s="481"/>
-      <c r="AV5" s="482"/>
-      <c r="AW5" s="483"/>
-      <c r="AX5" s="484"/>
-      <c r="AY5" t="s" s="485">
+      <c r="AN5" s="498"/>
+      <c r="AO5" s="499"/>
+      <c r="AP5" s="500"/>
+      <c r="AQ5" s="501"/>
+      <c r="AR5" s="502"/>
+      <c r="AS5" s="503"/>
+      <c r="AT5" s="504"/>
+      <c r="AU5" s="505"/>
+      <c r="AV5" s="506"/>
+      <c r="AW5" s="507"/>
+      <c r="AX5" s="508"/>
+      <c r="AY5" t="s" s="509">
         <v>10</v>
       </c>
-      <c r="AZ5" s="486"/>
-      <c r="BA5" s="487"/>
-      <c r="BB5" s="488"/>
-      <c r="BC5" s="489"/>
-      <c r="BD5" s="490"/>
-      <c r="BE5" s="491"/>
-      <c r="BF5" s="492"/>
-      <c r="BG5" s="493"/>
-      <c r="BH5" s="494"/>
-      <c r="BI5" s="495"/>
-      <c r="BJ5" s="496"/>
-      <c r="BK5" t="s" s="497">
+      <c r="AZ5" s="510"/>
+      <c r="BA5" s="511"/>
+      <c r="BB5" s="512"/>
+      <c r="BC5" s="513"/>
+      <c r="BD5" s="514"/>
+      <c r="BE5" s="515"/>
+      <c r="BF5" s="516"/>
+      <c r="BG5" s="517"/>
+      <c r="BH5" s="518"/>
+      <c r="BI5" s="519"/>
+      <c r="BJ5" s="520"/>
+      <c r="BK5" t="s" s="521">
         <v>11</v>
       </c>
-      <c r="BL5" s="498"/>
-      <c r="BM5" s="499"/>
-      <c r="BN5" s="500"/>
-      <c r="BO5" s="501"/>
-      <c r="BP5" s="502"/>
-      <c r="BQ5" s="503"/>
-      <c r="BR5" s="504"/>
-      <c r="BS5" s="505"/>
-      <c r="BT5" s="506"/>
-      <c r="BU5" s="507"/>
-      <c r="BV5" s="508"/>
-      <c r="BW5" t="s" s="509">
+      <c r="BL5" s="522"/>
+      <c r="BM5" s="523"/>
+      <c r="BN5" s="524"/>
+      <c r="BO5" s="525"/>
+      <c r="BP5" s="526"/>
+      <c r="BQ5" s="527"/>
+      <c r="BR5" s="528"/>
+      <c r="BS5" s="529"/>
+      <c r="BT5" s="530"/>
+      <c r="BU5" s="531"/>
+      <c r="BV5" s="532"/>
+      <c r="BW5" t="s" s="533">
         <v>12</v>
       </c>
-      <c r="BX5" s="510"/>
-      <c r="BY5" s="511"/>
-      <c r="BZ5" s="512"/>
-      <c r="CA5" s="513"/>
-      <c r="CB5" s="514"/>
-      <c r="CC5" s="515"/>
-      <c r="CD5" s="516"/>
-      <c r="CE5" s="517"/>
-      <c r="CF5" s="518"/>
-      <c r="CG5" s="519"/>
-      <c r="CH5" s="520"/>
-      <c r="CI5" t="s" s="521">
+      <c r="BX5" s="534"/>
+      <c r="BY5" s="535"/>
+      <c r="BZ5" s="536"/>
+      <c r="CA5" s="537"/>
+      <c r="CB5" s="538"/>
+      <c r="CC5" s="539"/>
+      <c r="CD5" s="540"/>
+      <c r="CE5" s="541"/>
+      <c r="CF5" s="542"/>
+      <c r="CG5" s="543"/>
+      <c r="CH5" s="544"/>
+      <c r="CI5" t="s" s="545">
         <v>13</v>
       </c>
-      <c r="CJ5" s="522"/>
-      <c r="CK5" s="523"/>
-      <c r="CL5" s="524"/>
-      <c r="CM5" s="525"/>
-      <c r="CN5" s="526"/>
-      <c r="CO5" s="527"/>
-      <c r="CP5" s="528"/>
-      <c r="CQ5" s="529"/>
-      <c r="CR5" s="530"/>
-      <c r="CS5" s="531"/>
-      <c r="CT5" s="532"/>
-      <c r="CU5" t="s" s="533">
+      <c r="CJ5" s="546"/>
+      <c r="CK5" s="547"/>
+      <c r="CL5" s="548"/>
+      <c r="CM5" s="549"/>
+      <c r="CN5" s="550"/>
+      <c r="CO5" s="551"/>
+      <c r="CP5" s="552"/>
+      <c r="CQ5" s="553"/>
+      <c r="CR5" s="554"/>
+      <c r="CS5" s="555"/>
+      <c r="CT5" s="556"/>
+      <c r="CU5" t="s" s="557">
         <v>14</v>
       </c>
-      <c r="CV5" s="534"/>
-      <c r="CW5" s="535"/>
-      <c r="CX5" s="536"/>
-      <c r="CY5" s="537"/>
-      <c r="CZ5" s="538"/>
-      <c r="DA5" s="539"/>
-      <c r="DB5" s="540"/>
-      <c r="DC5" s="541"/>
-      <c r="DD5" s="542"/>
-      <c r="DE5" s="543"/>
-      <c r="DF5" s="544"/>
-      <c r="DG5" t="s" s="545">
+      <c r="CV5" s="558"/>
+      <c r="CW5" s="559"/>
+      <c r="CX5" s="560"/>
+      <c r="CY5" s="561"/>
+      <c r="CZ5" s="562"/>
+      <c r="DA5" s="563"/>
+      <c r="DB5" s="564"/>
+      <c r="DC5" s="565"/>
+      <c r="DD5" s="566"/>
+      <c r="DE5" s="567"/>
+      <c r="DF5" s="568"/>
+      <c r="DG5" t="s" s="569">
         <v>15</v>
       </c>
-      <c r="DH5" s="546"/>
-      <c r="DI5" s="547"/>
-      <c r="DJ5" s="548"/>
-      <c r="DK5" s="549"/>
-      <c r="DL5" s="550"/>
-      <c r="DM5" s="551"/>
-      <c r="DN5" s="552"/>
-      <c r="DO5" s="553"/>
-      <c r="DP5" s="554"/>
-      <c r="DQ5" s="555"/>
-      <c r="DR5" s="556"/>
-      <c r="DS5" t="s" s="557">
+      <c r="DH5" s="570"/>
+      <c r="DI5" s="571"/>
+      <c r="DJ5" s="572"/>
+      <c r="DK5" s="573"/>
+      <c r="DL5" s="574"/>
+      <c r="DM5" s="575"/>
+      <c r="DN5" s="576"/>
+      <c r="DO5" s="577"/>
+      <c r="DP5" s="578"/>
+      <c r="DQ5" s="579"/>
+      <c r="DR5" s="580"/>
+      <c r="DS5" t="s" s="581">
         <v>16</v>
       </c>
-      <c r="DT5" s="558"/>
-      <c r="DU5" s="559"/>
-      <c r="DV5" s="560"/>
-      <c r="DW5" s="561"/>
-      <c r="DX5" s="562"/>
-      <c r="DY5" s="563"/>
-      <c r="DZ5" s="564"/>
-      <c r="EA5" s="565"/>
-      <c r="EB5" s="566"/>
-      <c r="EC5" s="567"/>
-      <c r="ED5" s="568"/>
-      <c r="EE5" t="s" s="569">
+      <c r="DT5" s="582"/>
+      <c r="DU5" s="583"/>
+      <c r="DV5" s="584"/>
+      <c r="DW5" s="585"/>
+      <c r="DX5" s="586"/>
+      <c r="DY5" s="587"/>
+      <c r="DZ5" s="588"/>
+      <c r="EA5" s="589"/>
+      <c r="EB5" s="590"/>
+      <c r="EC5" s="591"/>
+      <c r="ED5" s="592"/>
+      <c r="EE5" t="s" s="593">
         <v>17</v>
       </c>
-      <c r="EF5" s="570"/>
-      <c r="EG5" s="571"/>
-      <c r="EH5" s="572"/>
-      <c r="EI5" s="573"/>
-      <c r="EJ5" s="574"/>
-      <c r="EK5" s="575"/>
-      <c r="EL5" s="576"/>
-      <c r="EM5" s="577"/>
-      <c r="EN5" s="578"/>
-      <c r="EO5" s="579"/>
-      <c r="EP5" s="580"/>
-      <c r="EQ5" t="s" s="581">
+      <c r="EF5" s="594"/>
+      <c r="EG5" s="595"/>
+      <c r="EH5" s="596"/>
+      <c r="EI5" s="597"/>
+      <c r="EJ5" s="598"/>
+      <c r="EK5" s="599"/>
+      <c r="EL5" s="600"/>
+      <c r="EM5" s="601"/>
+      <c r="EN5" s="602"/>
+      <c r="EO5" s="603"/>
+      <c r="EP5" s="604"/>
+      <c r="EQ5" t="s" s="605">
         <v>18</v>
       </c>
-      <c r="ER5" s="582"/>
-      <c r="ES5" s="583"/>
-      <c r="ET5" s="584"/>
-      <c r="EU5" s="585"/>
-      <c r="EV5" s="586"/>
-      <c r="EW5" s="587"/>
-      <c r="EX5" s="588"/>
-      <c r="EY5" s="589"/>
-      <c r="EZ5" s="590"/>
-      <c r="FA5" s="591"/>
-      <c r="FB5" s="592"/>
-      <c r="FC5" t="s" s="593">
+      <c r="ER5" s="606"/>
+      <c r="ES5" s="607"/>
+      <c r="ET5" s="608"/>
+      <c r="EU5" s="609"/>
+      <c r="EV5" s="610"/>
+      <c r="EW5" s="611"/>
+      <c r="EX5" s="612"/>
+      <c r="EY5" s="613"/>
+      <c r="EZ5" s="614"/>
+      <c r="FA5" s="615"/>
+      <c r="FB5" s="616"/>
+      <c r="FC5" t="s" s="617">
         <v>19</v>
       </c>
-      <c r="FD5" s="594"/>
-      <c r="FE5" s="595"/>
-      <c r="FF5" s="596"/>
-      <c r="FG5" s="597"/>
-      <c r="FH5" s="598"/>
-      <c r="FI5" s="599"/>
-      <c r="FJ5" s="600"/>
-      <c r="FK5" s="601"/>
-      <c r="FL5" s="602"/>
-      <c r="FM5" s="603"/>
-      <c r="FN5" s="604"/>
-      <c r="FO5" t="s" s="605">
+      <c r="FD5" s="618"/>
+      <c r="FE5" s="619"/>
+      <c r="FF5" s="620"/>
+      <c r="FG5" s="621"/>
+      <c r="FH5" s="622"/>
+      <c r="FI5" s="623"/>
+      <c r="FJ5" s="624"/>
+      <c r="FK5" s="625"/>
+      <c r="FL5" s="626"/>
+      <c r="FM5" s="627"/>
+      <c r="FN5" s="628"/>
+      <c r="FO5" t="s" s="629">
         <v>20</v>
       </c>
-      <c r="FP5" s="606"/>
-      <c r="FQ5" s="607"/>
-      <c r="FR5" s="608"/>
-      <c r="FS5" s="609"/>
-      <c r="FT5" s="610"/>
-      <c r="FU5" s="611"/>
-      <c r="FV5" s="612"/>
-      <c r="FW5" s="613"/>
-      <c r="FX5" s="614"/>
-      <c r="FY5" s="615"/>
-      <c r="FZ5" s="616"/>
-      <c r="GA5" t="s" s="617">
+      <c r="FP5" s="630"/>
+      <c r="FQ5" s="631"/>
+      <c r="FR5" s="632"/>
+      <c r="FS5" s="633"/>
+      <c r="FT5" s="634"/>
+      <c r="FU5" s="635"/>
+      <c r="FV5" s="636"/>
+      <c r="FW5" s="637"/>
+      <c r="FX5" s="638"/>
+      <c r="FY5" s="639"/>
+      <c r="FZ5" s="640"/>
+      <c r="GA5" t="s" s="641">
         <v>21</v>
       </c>
-      <c r="GB5" s="618"/>
-      <c r="GC5" s="619"/>
-      <c r="GD5" s="620"/>
-      <c r="GE5" s="621"/>
-      <c r="GF5" s="622"/>
-      <c r="GG5" s="623"/>
-      <c r="GH5" s="624"/>
-      <c r="GI5" s="625"/>
-      <c r="GJ5" s="626"/>
-      <c r="GK5" s="627"/>
-      <c r="GL5" s="628"/>
-      <c r="GM5" t="s" s="629">
+      <c r="GB5" s="642"/>
+      <c r="GC5" s="643"/>
+      <c r="GD5" s="644"/>
+      <c r="GE5" s="645"/>
+      <c r="GF5" s="646"/>
+      <c r="GG5" s="647"/>
+      <c r="GH5" s="648"/>
+      <c r="GI5" s="649"/>
+      <c r="GJ5" s="650"/>
+      <c r="GK5" s="651"/>
+      <c r="GL5" s="652"/>
+      <c r="GM5" t="s" s="653">
         <v>22</v>
       </c>
-      <c r="GN5" s="630"/>
-      <c r="GO5" s="631"/>
-      <c r="GP5" s="632"/>
-      <c r="GQ5" s="633"/>
-      <c r="GR5" s="634"/>
-      <c r="GS5" s="635"/>
-      <c r="GT5" s="636"/>
-      <c r="GU5" s="637"/>
-      <c r="GV5" s="638"/>
-      <c r="GW5" s="639"/>
-      <c r="GX5" s="640"/>
+      <c r="GN5" s="654"/>
+      <c r="GO5" s="655"/>
+      <c r="GP5" s="656"/>
+      <c r="GQ5" s="657"/>
+      <c r="GR5" s="658"/>
+      <c r="GS5" s="659"/>
+      <c r="GT5" s="660"/>
+      <c r="GU5" s="661"/>
+      <c r="GV5" s="662"/>
+      <c r="GW5" s="663"/>
+      <c r="GX5" s="664"/>
+      <c r="GY5" t="s" s="665">
+        <v>23</v>
+      </c>
+      <c r="GZ5" s="666"/>
+      <c r="HA5" s="667"/>
+      <c r="HB5" s="668"/>
+      <c r="HC5" s="669"/>
+      <c r="HD5" s="670"/>
+      <c r="HE5" s="671"/>
+      <c r="HF5" s="672"/>
+      <c r="HG5" s="673"/>
+      <c r="HH5" s="674"/>
+      <c r="HI5" s="675"/>
+      <c r="HJ5" s="676"/>
     </row>
     <row r="6">
-      <c r="A6" s="641"/>
-      <c r="B6" s="642"/>
-      <c r="C6" t="s" s="643">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s" s="644">
+      <c r="A6" s="677"/>
+      <c r="B6" s="678"/>
+      <c r="C6" t="s" s="679">
         <v>24</v>
       </c>
-      <c r="E6" t="s" s="645">
+      <c r="D6" t="s" s="680">
         <v>25</v>
       </c>
-      <c r="F6" t="s" s="646">
+      <c r="E6" t="s" s="681">
         <v>26</v>
       </c>
-      <c r="G6" t="s" s="647">
+      <c r="F6" t="s" s="682">
         <v>27</v>
       </c>
-      <c r="H6" t="s" s="648">
+      <c r="G6" t="s" s="683">
         <v>28</v>
       </c>
-      <c r="I6" t="s" s="649">
+      <c r="H6" t="s" s="684">
         <v>29</v>
       </c>
-      <c r="J6" t="s" s="650">
+      <c r="I6" t="s" s="685">
         <v>30</v>
       </c>
-      <c r="K6" t="s" s="651">
+      <c r="J6" t="s" s="686">
         <v>31</v>
       </c>
-      <c r="L6" t="s" s="652">
+      <c r="K6" t="s" s="687">
         <v>32</v>
       </c>
-      <c r="M6" t="s" s="653">
+      <c r="L6" t="s" s="688">
         <v>33</v>
       </c>
-      <c r="N6" t="s" s="654">
+      <c r="M6" t="s" s="689">
         <v>34</v>
       </c>
-      <c r="O6" t="s" s="655">
-        <v>23</v>
-      </c>
-      <c r="P6" t="s" s="656">
+      <c r="N6" t="s" s="690">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s" s="691">
         <v>24</v>
       </c>
-      <c r="Q6" t="s" s="657">
+      <c r="P6" t="s" s="692">
         <v>25</v>
       </c>
-      <c r="R6" t="s" s="658">
+      <c r="Q6" t="s" s="693">
         <v>26</v>
       </c>
-      <c r="S6" t="s" s="659">
+      <c r="R6" t="s" s="694">
         <v>27</v>
       </c>
-      <c r="T6" t="s" s="660">
+      <c r="S6" t="s" s="695">
         <v>28</v>
       </c>
-      <c r="U6" t="s" s="661">
+      <c r="T6" t="s" s="696">
         <v>29</v>
       </c>
-      <c r="V6" t="s" s="662">
+      <c r="U6" t="s" s="697">
         <v>30</v>
       </c>
-      <c r="W6" t="s" s="663">
+      <c r="V6" t="s" s="698">
         <v>31</v>
       </c>
-      <c r="X6" t="s" s="664">
+      <c r="W6" t="s" s="699">
         <v>32</v>
       </c>
-      <c r="Y6" t="s" s="665">
+      <c r="X6" t="s" s="700">
         <v>33</v>
       </c>
-      <c r="Z6" t="s" s="666">
+      <c r="Y6" t="s" s="701">
         <v>34</v>
       </c>
-      <c r="AA6" t="s" s="667">
-        <v>23</v>
-      </c>
-      <c r="AB6" t="s" s="668">
+      <c r="Z6" t="s" s="702">
+        <v>35</v>
+      </c>
+      <c r="AA6" t="s" s="703">
         <v>24</v>
       </c>
-      <c r="AC6" t="s" s="669">
+      <c r="AB6" t="s" s="704">
         <v>25</v>
       </c>
-      <c r="AD6" t="s" s="670">
+      <c r="AC6" t="s" s="705">
         <v>26</v>
       </c>
-      <c r="AE6" t="s" s="671">
+      <c r="AD6" t="s" s="706">
         <v>27</v>
       </c>
-      <c r="AF6" t="s" s="672">
+      <c r="AE6" t="s" s="707">
         <v>28</v>
       </c>
-      <c r="AG6" t="s" s="673">
+      <c r="AF6" t="s" s="708">
         <v>29</v>
       </c>
-      <c r="AH6" t="s" s="674">
+      <c r="AG6" t="s" s="709">
         <v>30</v>
       </c>
-      <c r="AI6" t="s" s="675">
+      <c r="AH6" t="s" s="710">
         <v>31</v>
       </c>
-      <c r="AJ6" t="s" s="676">
+      <c r="AI6" t="s" s="711">
         <v>32</v>
       </c>
-      <c r="AK6" t="s" s="677">
+      <c r="AJ6" t="s" s="712">
         <v>33</v>
       </c>
-      <c r="AL6" t="s" s="678">
+      <c r="AK6" t="s" s="713">
         <v>34</v>
       </c>
-      <c r="AM6" t="s" s="679">
-        <v>23</v>
-      </c>
-      <c r="AN6" t="s" s="680">
+      <c r="AL6" t="s" s="714">
+        <v>35</v>
+      </c>
+      <c r="AM6" t="s" s="715">
         <v>24</v>
       </c>
-      <c r="AO6" t="s" s="681">
+      <c r="AN6" t="s" s="716">
         <v>25</v>
       </c>
-      <c r="AP6" t="s" s="682">
+      <c r="AO6" t="s" s="717">
         <v>26</v>
       </c>
-      <c r="AQ6" t="s" s="683">
+      <c r="AP6" t="s" s="718">
         <v>27</v>
       </c>
-      <c r="AR6" t="s" s="684">
+      <c r="AQ6" t="s" s="719">
         <v>28</v>
       </c>
-      <c r="AS6" t="s" s="685">
+      <c r="AR6" t="s" s="720">
         <v>29</v>
       </c>
-      <c r="AT6" t="s" s="686">
+      <c r="AS6" t="s" s="721">
         <v>30</v>
       </c>
-      <c r="AU6" t="s" s="687">
+      <c r="AT6" t="s" s="722">
         <v>31</v>
       </c>
-      <c r="AV6" t="s" s="688">
+      <c r="AU6" t="s" s="723">
         <v>32</v>
       </c>
-      <c r="AW6" t="s" s="689">
+      <c r="AV6" t="s" s="724">
         <v>33</v>
       </c>
-      <c r="AX6" t="s" s="690">
+      <c r="AW6" t="s" s="725">
         <v>34</v>
       </c>
-      <c r="AY6" t="s" s="691">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="s" s="692">
+      <c r="AX6" t="s" s="726">
+        <v>35</v>
+      </c>
+      <c r="AY6" t="s" s="727">
         <v>24</v>
       </c>
-      <c r="BA6" t="s" s="693">
+      <c r="AZ6" t="s" s="728">
         <v>25</v>
       </c>
-      <c r="BB6" t="s" s="694">
+      <c r="BA6" t="s" s="729">
         <v>26</v>
       </c>
-      <c r="BC6" t="s" s="695">
+      <c r="BB6" t="s" s="730">
         <v>27</v>
       </c>
-      <c r="BD6" t="s" s="696">
+      <c r="BC6" t="s" s="731">
         <v>28</v>
       </c>
-      <c r="BE6" t="s" s="697">
+      <c r="BD6" t="s" s="732">
         <v>29</v>
       </c>
-      <c r="BF6" t="s" s="698">
+      <c r="BE6" t="s" s="733">
         <v>30</v>
       </c>
-      <c r="BG6" t="s" s="699">
+      <c r="BF6" t="s" s="734">
         <v>31</v>
       </c>
-      <c r="BH6" t="s" s="700">
+      <c r="BG6" t="s" s="735">
         <v>32</v>
       </c>
-      <c r="BI6" t="s" s="701">
+      <c r="BH6" t="s" s="736">
         <v>33</v>
       </c>
-      <c r="BJ6" t="s" s="702">
+      <c r="BI6" t="s" s="737">
         <v>34</v>
       </c>
-      <c r="BK6" t="s" s="703">
-        <v>23</v>
-      </c>
-      <c r="BL6" t="s" s="704">
+      <c r="BJ6" t="s" s="738">
+        <v>35</v>
+      </c>
+      <c r="BK6" t="s" s="739">
         <v>24</v>
       </c>
-      <c r="BM6" t="s" s="705">
+      <c r="BL6" t="s" s="740">
         <v>25</v>
       </c>
-      <c r="BN6" t="s" s="706">
+      <c r="BM6" t="s" s="741">
         <v>26</v>
       </c>
-      <c r="BO6" t="s" s="707">
+      <c r="BN6" t="s" s="742">
         <v>27</v>
       </c>
-      <c r="BP6" t="s" s="708">
+      <c r="BO6" t="s" s="743">
         <v>28</v>
       </c>
-      <c r="BQ6" t="s" s="709">
+      <c r="BP6" t="s" s="744">
         <v>29</v>
       </c>
-      <c r="BR6" t="s" s="710">
+      <c r="BQ6" t="s" s="745">
         <v>30</v>
       </c>
-      <c r="BS6" t="s" s="711">
+      <c r="BR6" t="s" s="746">
         <v>31</v>
       </c>
-      <c r="BT6" t="s" s="712">
+      <c r="BS6" t="s" s="747">
         <v>32</v>
       </c>
-      <c r="BU6" t="s" s="713">
+      <c r="BT6" t="s" s="748">
         <v>33</v>
       </c>
-      <c r="BV6" t="s" s="714">
+      <c r="BU6" t="s" s="749">
         <v>34</v>
       </c>
-      <c r="BW6" t="s" s="715">
-        <v>23</v>
-      </c>
-      <c r="BX6" t="s" s="716">
+      <c r="BV6" t="s" s="750">
+        <v>35</v>
+      </c>
+      <c r="BW6" t="s" s="751">
         <v>24</v>
       </c>
-      <c r="BY6" t="s" s="717">
+      <c r="BX6" t="s" s="752">
         <v>25</v>
       </c>
-      <c r="BZ6" t="s" s="718">
+      <c r="BY6" t="s" s="753">
         <v>26</v>
       </c>
-      <c r="CA6" t="s" s="719">
+      <c r="BZ6" t="s" s="754">
         <v>27</v>
       </c>
-      <c r="CB6" t="s" s="720">
+      <c r="CA6" t="s" s="755">
         <v>28</v>
       </c>
-      <c r="CC6" t="s" s="721">
+      <c r="CB6" t="s" s="756">
         <v>29</v>
       </c>
-      <c r="CD6" t="s" s="722">
+      <c r="CC6" t="s" s="757">
         <v>30</v>
       </c>
-      <c r="CE6" t="s" s="723">
+      <c r="CD6" t="s" s="758">
         <v>31</v>
       </c>
-      <c r="CF6" t="s" s="724">
+      <c r="CE6" t="s" s="759">
         <v>32</v>
       </c>
-      <c r="CG6" t="s" s="725">
+      <c r="CF6" t="s" s="760">
         <v>33</v>
       </c>
-      <c r="CH6" t="s" s="726">
+      <c r="CG6" t="s" s="761">
         <v>34</v>
       </c>
-      <c r="CI6" t="s" s="727">
-        <v>23</v>
-      </c>
-      <c r="CJ6" t="s" s="728">
+      <c r="CH6" t="s" s="762">
+        <v>35</v>
+      </c>
+      <c r="CI6" t="s" s="763">
         <v>24</v>
       </c>
-      <c r="CK6" t="s" s="729">
+      <c r="CJ6" t="s" s="764">
         <v>25</v>
       </c>
-      <c r="CL6" t="s" s="730">
+      <c r="CK6" t="s" s="765">
         <v>26</v>
       </c>
-      <c r="CM6" t="s" s="731">
+      <c r="CL6" t="s" s="766">
         <v>27</v>
       </c>
-      <c r="CN6" t="s" s="732">
+      <c r="CM6" t="s" s="767">
         <v>28</v>
       </c>
-      <c r="CO6" t="s" s="733">
+      <c r="CN6" t="s" s="768">
         <v>29</v>
       </c>
-      <c r="CP6" t="s" s="734">
+      <c r="CO6" t="s" s="769">
         <v>30</v>
       </c>
-      <c r="CQ6" t="s" s="735">
+      <c r="CP6" t="s" s="770">
         <v>31</v>
       </c>
-      <c r="CR6" t="s" s="736">
+      <c r="CQ6" t="s" s="771">
         <v>32</v>
       </c>
-      <c r="CS6" t="s" s="737">
+      <c r="CR6" t="s" s="772">
         <v>33</v>
       </c>
-      <c r="CT6" t="s" s="738">
+      <c r="CS6" t="s" s="773">
         <v>34</v>
       </c>
-      <c r="CU6" t="s" s="739">
-        <v>23</v>
-      </c>
-      <c r="CV6" t="s" s="740">
+      <c r="CT6" t="s" s="774">
+        <v>35</v>
+      </c>
+      <c r="CU6" t="s" s="775">
         <v>24</v>
       </c>
-      <c r="CW6" t="s" s="741">
+      <c r="CV6" t="s" s="776">
         <v>25</v>
       </c>
-      <c r="CX6" t="s" s="742">
+      <c r="CW6" t="s" s="777">
         <v>26</v>
       </c>
-      <c r="CY6" t="s" s="743">
+      <c r="CX6" t="s" s="778">
         <v>27</v>
       </c>
-      <c r="CZ6" t="s" s="744">
+      <c r="CY6" t="s" s="779">
         <v>28</v>
       </c>
-      <c r="DA6" t="s" s="745">
+      <c r="CZ6" t="s" s="780">
         <v>29</v>
       </c>
-      <c r="DB6" t="s" s="746">
+      <c r="DA6" t="s" s="781">
         <v>30</v>
       </c>
-      <c r="DC6" t="s" s="747">
+      <c r="DB6" t="s" s="782">
         <v>31</v>
       </c>
-      <c r="DD6" t="s" s="748">
+      <c r="DC6" t="s" s="783">
         <v>32</v>
       </c>
-      <c r="DE6" t="s" s="749">
+      <c r="DD6" t="s" s="784">
         <v>33</v>
       </c>
-      <c r="DF6" t="s" s="750">
+      <c r="DE6" t="s" s="785">
         <v>34</v>
       </c>
-      <c r="DG6" t="s" s="751">
-        <v>23</v>
-      </c>
-      <c r="DH6" t="s" s="752">
+      <c r="DF6" t="s" s="786">
+        <v>35</v>
+      </c>
+      <c r="DG6" t="s" s="787">
         <v>24</v>
       </c>
-      <c r="DI6" t="s" s="753">
+      <c r="DH6" t="s" s="788">
         <v>25</v>
       </c>
-      <c r="DJ6" t="s" s="754">
+      <c r="DI6" t="s" s="789">
         <v>26</v>
       </c>
-      <c r="DK6" t="s" s="755">
+      <c r="DJ6" t="s" s="790">
         <v>27</v>
       </c>
-      <c r="DL6" t="s" s="756">
+      <c r="DK6" t="s" s="791">
         <v>28</v>
       </c>
-      <c r="DM6" t="s" s="757">
+      <c r="DL6" t="s" s="792">
         <v>29</v>
       </c>
-      <c r="DN6" t="s" s="758">
+      <c r="DM6" t="s" s="793">
         <v>30</v>
       </c>
-      <c r="DO6" t="s" s="759">
+      <c r="DN6" t="s" s="794">
         <v>31</v>
       </c>
-      <c r="DP6" t="s" s="760">
+      <c r="DO6" t="s" s="795">
         <v>32</v>
       </c>
-      <c r="DQ6" t="s" s="761">
+      <c r="DP6" t="s" s="796">
         <v>33</v>
       </c>
-      <c r="DR6" t="s" s="762">
+      <c r="DQ6" t="s" s="797">
         <v>34</v>
       </c>
-      <c r="DS6" t="s" s="763">
-        <v>23</v>
-      </c>
-      <c r="DT6" t="s" s="764">
+      <c r="DR6" t="s" s="798">
+        <v>35</v>
+      </c>
+      <c r="DS6" t="s" s="799">
         <v>24</v>
       </c>
-      <c r="DU6" t="s" s="765">
+      <c r="DT6" t="s" s="800">
         <v>25</v>
       </c>
-      <c r="DV6" t="s" s="766">
+      <c r="DU6" t="s" s="801">
         <v>26</v>
       </c>
-      <c r="DW6" t="s" s="767">
+      <c r="DV6" t="s" s="802">
         <v>27</v>
       </c>
-      <c r="DX6" t="s" s="768">
+      <c r="DW6" t="s" s="803">
         <v>28</v>
       </c>
-      <c r="DY6" t="s" s="769">
+      <c r="DX6" t="s" s="804">
         <v>29</v>
       </c>
-      <c r="DZ6" t="s" s="770">
+      <c r="DY6" t="s" s="805">
         <v>30</v>
       </c>
-      <c r="EA6" t="s" s="771">
+      <c r="DZ6" t="s" s="806">
         <v>31</v>
       </c>
-      <c r="EB6" t="s" s="772">
+      <c r="EA6" t="s" s="807">
         <v>32</v>
       </c>
-      <c r="EC6" t="s" s="773">
+      <c r="EB6" t="s" s="808">
         <v>33</v>
       </c>
-      <c r="ED6" t="s" s="774">
+      <c r="EC6" t="s" s="809">
         <v>34</v>
       </c>
-      <c r="EE6" t="s" s="775">
-        <v>23</v>
-      </c>
-      <c r="EF6" t="s" s="776">
+      <c r="ED6" t="s" s="810">
+        <v>35</v>
+      </c>
+      <c r="EE6" t="s" s="811">
         <v>24</v>
       </c>
-      <c r="EG6" t="s" s="777">
+      <c r="EF6" t="s" s="812">
         <v>25</v>
       </c>
-      <c r="EH6" t="s" s="778">
+      <c r="EG6" t="s" s="813">
         <v>26</v>
       </c>
-      <c r="EI6" t="s" s="779">
+      <c r="EH6" t="s" s="814">
         <v>27</v>
       </c>
-      <c r="EJ6" t="s" s="780">
+      <c r="EI6" t="s" s="815">
         <v>28</v>
       </c>
-      <c r="EK6" t="s" s="781">
+      <c r="EJ6" t="s" s="816">
         <v>29</v>
       </c>
-      <c r="EL6" t="s" s="782">
+      <c r="EK6" t="s" s="817">
         <v>30</v>
       </c>
-      <c r="EM6" t="s" s="783">
+      <c r="EL6" t="s" s="818">
         <v>31</v>
       </c>
-      <c r="EN6" t="s" s="784">
+      <c r="EM6" t="s" s="819">
         <v>32</v>
       </c>
-      <c r="EO6" t="s" s="785">
+      <c r="EN6" t="s" s="820">
         <v>33</v>
       </c>
-      <c r="EP6" t="s" s="786">
+      <c r="EO6" t="s" s="821">
         <v>34</v>
       </c>
-      <c r="EQ6" t="s" s="787">
-        <v>23</v>
-      </c>
-      <c r="ER6" t="s" s="788">
+      <c r="EP6" t="s" s="822">
+        <v>35</v>
+      </c>
+      <c r="EQ6" t="s" s="823">
         <v>24</v>
       </c>
-      <c r="ES6" t="s" s="789">
+      <c r="ER6" t="s" s="824">
         <v>25</v>
       </c>
-      <c r="ET6" t="s" s="790">
+      <c r="ES6" t="s" s="825">
         <v>26</v>
       </c>
-      <c r="EU6" t="s" s="791">
+      <c r="ET6" t="s" s="826">
         <v>27</v>
       </c>
-      <c r="EV6" t="s" s="792">
+      <c r="EU6" t="s" s="827">
         <v>28</v>
       </c>
-      <c r="EW6" t="s" s="793">
+      <c r="EV6" t="s" s="828">
         <v>29</v>
       </c>
-      <c r="EX6" t="s" s="794">
+      <c r="EW6" t="s" s="829">
         <v>30</v>
       </c>
-      <c r="EY6" t="s" s="795">
+      <c r="EX6" t="s" s="830">
         <v>31</v>
       </c>
-      <c r="EZ6" t="s" s="796">
+      <c r="EY6" t="s" s="831">
         <v>32</v>
       </c>
-      <c r="FA6" t="s" s="797">
+      <c r="EZ6" t="s" s="832">
         <v>33</v>
       </c>
-      <c r="FB6" t="s" s="798">
+      <c r="FA6" t="s" s="833">
         <v>34</v>
       </c>
-      <c r="FC6" t="s" s="799">
-        <v>23</v>
-      </c>
-      <c r="FD6" t="s" s="800">
+      <c r="FB6" t="s" s="834">
+        <v>35</v>
+      </c>
+      <c r="FC6" t="s" s="835">
         <v>24</v>
       </c>
-      <c r="FE6" t="s" s="801">
+      <c r="FD6" t="s" s="836">
         <v>25</v>
       </c>
-      <c r="FF6" t="s" s="802">
+      <c r="FE6" t="s" s="837">
         <v>26</v>
       </c>
-      <c r="FG6" t="s" s="803">
+      <c r="FF6" t="s" s="838">
         <v>27</v>
       </c>
-      <c r="FH6" t="s" s="804">
+      <c r="FG6" t="s" s="839">
         <v>28</v>
       </c>
-      <c r="FI6" t="s" s="805">
+      <c r="FH6" t="s" s="840">
         <v>29</v>
       </c>
-      <c r="FJ6" t="s" s="806">
+      <c r="FI6" t="s" s="841">
         <v>30</v>
       </c>
-      <c r="FK6" t="s" s="807">
+      <c r="FJ6" t="s" s="842">
         <v>31</v>
       </c>
-      <c r="FL6" t="s" s="808">
+      <c r="FK6" t="s" s="843">
         <v>32</v>
       </c>
-      <c r="FM6" t="s" s="809">
+      <c r="FL6" t="s" s="844">
         <v>33</v>
       </c>
-      <c r="FN6" t="s" s="810">
+      <c r="FM6" t="s" s="845">
         <v>34</v>
       </c>
-      <c r="FO6" t="s" s="811">
-        <v>23</v>
-      </c>
-      <c r="FP6" t="s" s="812">
+      <c r="FN6" t="s" s="846">
+        <v>35</v>
+      </c>
+      <c r="FO6" t="s" s="847">
         <v>24</v>
       </c>
-      <c r="FQ6" t="s" s="813">
+      <c r="FP6" t="s" s="848">
         <v>25</v>
       </c>
-      <c r="FR6" t="s" s="814">
+      <c r="FQ6" t="s" s="849">
         <v>26</v>
       </c>
-      <c r="FS6" t="s" s="815">
+      <c r="FR6" t="s" s="850">
         <v>27</v>
       </c>
-      <c r="FT6" t="s" s="816">
+      <c r="FS6" t="s" s="851">
         <v>28</v>
       </c>
-      <c r="FU6" t="s" s="817">
+      <c r="FT6" t="s" s="852">
         <v>29</v>
       </c>
-      <c r="FV6" t="s" s="818">
+      <c r="FU6" t="s" s="853">
         <v>30</v>
       </c>
-      <c r="FW6" t="s" s="819">
+      <c r="FV6" t="s" s="854">
         <v>31</v>
       </c>
-      <c r="FX6" t="s" s="820">
+      <c r="FW6" t="s" s="855">
         <v>32</v>
       </c>
-      <c r="FY6" t="s" s="821">
+      <c r="FX6" t="s" s="856">
         <v>33</v>
       </c>
-      <c r="FZ6" t="s" s="822">
+      <c r="FY6" t="s" s="857">
         <v>34</v>
       </c>
-      <c r="GA6" t="s" s="823">
-        <v>23</v>
-      </c>
-      <c r="GB6" t="s" s="824">
+      <c r="FZ6" t="s" s="858">
+        <v>35</v>
+      </c>
+      <c r="GA6" t="s" s="859">
         <v>24</v>
       </c>
-      <c r="GC6" t="s" s="825">
+      <c r="GB6" t="s" s="860">
         <v>25</v>
       </c>
-      <c r="GD6" t="s" s="826">
+      <c r="GC6" t="s" s="861">
         <v>26</v>
       </c>
-      <c r="GE6" t="s" s="827">
+      <c r="GD6" t="s" s="862">
         <v>27</v>
       </c>
-      <c r="GF6" t="s" s="828">
+      <c r="GE6" t="s" s="863">
         <v>28</v>
       </c>
-      <c r="GG6" t="s" s="829">
+      <c r="GF6" t="s" s="864">
         <v>29</v>
       </c>
-      <c r="GH6" t="s" s="830">
+      <c r="GG6" t="s" s="865">
         <v>30</v>
       </c>
-      <c r="GI6" t="s" s="831">
+      <c r="GH6" t="s" s="866">
         <v>31</v>
       </c>
-      <c r="GJ6" t="s" s="832">
+      <c r="GI6" t="s" s="867">
         <v>32</v>
       </c>
-      <c r="GK6" t="s" s="833">
+      <c r="GJ6" t="s" s="868">
         <v>33</v>
       </c>
-      <c r="GL6" t="s" s="834">
+      <c r="GK6" t="s" s="869">
         <v>34</v>
       </c>
-      <c r="GM6" t="s" s="835">
-        <v>23</v>
-      </c>
-      <c r="GN6" t="s" s="836">
+      <c r="GL6" t="s" s="870">
+        <v>35</v>
+      </c>
+      <c r="GM6" t="s" s="871">
         <v>24</v>
       </c>
-      <c r="GO6" t="s" s="837">
+      <c r="GN6" t="s" s="872">
         <v>25</v>
       </c>
-      <c r="GP6" t="s" s="838">
+      <c r="GO6" t="s" s="873">
         <v>26</v>
       </c>
-      <c r="GQ6" t="s" s="839">
+      <c r="GP6" t="s" s="874">
         <v>27</v>
       </c>
-      <c r="GR6" t="s" s="840">
+      <c r="GQ6" t="s" s="875">
         <v>28</v>
       </c>
-      <c r="GS6" t="s" s="841">
+      <c r="GR6" t="s" s="876">
         <v>29</v>
       </c>
-      <c r="GT6" t="s" s="842">
+      <c r="GS6" t="s" s="877">
         <v>30</v>
       </c>
-      <c r="GU6" t="s" s="843">
+      <c r="GT6" t="s" s="878">
         <v>31</v>
       </c>
-      <c r="GV6" t="s" s="844">
+      <c r="GU6" t="s" s="879">
         <v>32</v>
       </c>
-      <c r="GW6" t="s" s="845">
+      <c r="GV6" t="s" s="880">
         <v>33</v>
       </c>
-      <c r="GX6" t="s" s="846">
+      <c r="GW6" t="s" s="881">
         <v>34</v>
+      </c>
+      <c r="GX6" t="s" s="882">
+        <v>35</v>
+      </c>
+      <c r="GY6" t="s" s="883">
+        <v>24</v>
+      </c>
+      <c r="GZ6" t="s" s="884">
+        <v>25</v>
+      </c>
+      <c r="HA6" t="s" s="885">
+        <v>26</v>
+      </c>
+      <c r="HB6" t="s" s="886">
+        <v>27</v>
+      </c>
+      <c r="HC6" t="s" s="887">
+        <v>28</v>
+      </c>
+      <c r="HD6" t="s" s="888">
+        <v>29</v>
+      </c>
+      <c r="HE6" t="s" s="889">
+        <v>30</v>
+      </c>
+      <c r="HF6" t="s" s="890">
+        <v>31</v>
+      </c>
+      <c r="HG6" t="s" s="891">
+        <v>32</v>
+      </c>
+      <c r="HH6" t="s" s="892">
+        <v>33</v>
+      </c>
+      <c r="HI6" t="s" s="893">
+        <v>34</v>
+      </c>
+      <c r="HJ6" t="s" s="894">
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="33.75" customHeight="true">
       <c r="A7" t="s" s="14">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -5437,7 +5688,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n" s="10">
         <v>22226.0</v>
@@ -6016,25 +6267,25 @@
         <v>23282.0</v>
       </c>
       <c r="GM8" t="n" s="10">
-        <v>22505.0</v>
+        <v>22484.0</v>
       </c>
       <c r="GN8" t="n" s="10">
-        <v>22629.0</v>
+        <v>22619.0</v>
       </c>
       <c r="GO8" t="n" s="10">
-        <v>22706.0</v>
+        <v>22698.0</v>
       </c>
       <c r="GP8" t="n" s="10">
-        <v>22704.0</v>
+        <v>22700.0</v>
       </c>
       <c r="GQ8" t="n" s="10">
-        <v>22695.0</v>
+        <v>22692.0</v>
       </c>
       <c r="GR8" t="n" s="10">
-        <v>22674.0</v>
+        <v>22672.0</v>
       </c>
       <c r="GS8" t="n" s="10">
-        <v>22660.0</v>
+        <v>22659.0</v>
       </c>
       <c r="GT8" t="n" s="10">
         <v>22640.0</v>
@@ -6045,19 +6296,55 @@
       <c r="GV8" t="n" s="10">
         <v>22607.0</v>
       </c>
-      <c r="GW8" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX8" t="s" s="10">
-        <v>37</v>
+      <c r="GW8" t="n" s="10">
+        <v>22592.0</v>
+      </c>
+      <c r="GX8" t="n" s="10">
+        <v>22577.0</v>
+      </c>
+      <c r="GY8" t="n" s="10">
+        <v>22287.0</v>
+      </c>
+      <c r="GZ8" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA8" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB8" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC8" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD8" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE8" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF8" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG8" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH8" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI8" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ8" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n" s="10">
         <v>5120514.0</v>
@@ -6636,48 +6923,84 @@
         <v>5514074.0</v>
       </c>
       <c r="GM9" t="n" s="10">
-        <v>5473834.0</v>
+        <v>5464539.0</v>
       </c>
       <c r="GN9" t="n" s="10">
-        <v>5468995.0</v>
+        <v>5465504.0</v>
       </c>
       <c r="GO9" t="n" s="10">
-        <v>5475945.0</v>
+        <v>5473181.0</v>
       </c>
       <c r="GP9" t="n" s="10">
-        <v>5474088.0</v>
+        <v>5474491.0</v>
       </c>
       <c r="GQ9" t="n" s="10">
-        <v>5472555.0</v>
+        <v>5472835.0</v>
       </c>
       <c r="GR9" t="n" s="10">
-        <v>5476638.0</v>
+        <v>5477143.0</v>
       </c>
       <c r="GS9" t="n" s="10">
-        <v>5479055.0</v>
+        <v>5481838.0</v>
       </c>
       <c r="GT9" t="n" s="10">
-        <v>5495838.0</v>
+        <v>5494707.0</v>
       </c>
       <c r="GU9" t="n" s="10">
-        <v>5520174.0</v>
+        <v>5518962.0</v>
       </c>
       <c r="GV9" t="n" s="10">
-        <v>5512398.0</v>
-      </c>
-      <c r="GW9" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX9" t="s" s="10">
-        <v>37</v>
+        <v>5510863.0</v>
+      </c>
+      <c r="GW9" t="n" s="10">
+        <v>5512289.0</v>
+      </c>
+      <c r="GX9" t="n" s="10">
+        <v>5494442.0</v>
+      </c>
+      <c r="GY9" t="n" s="10">
+        <v>5479979.0</v>
+      </c>
+      <c r="GZ9" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA9" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB9" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC9" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD9" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE9" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF9" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG9" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH9" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI9" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ9" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n" s="10">
         <v>652001.0</v>
@@ -7256,48 +7579,84 @@
         <v>592682.0</v>
       </c>
       <c r="GM10" t="n" s="10">
-        <v>653051.0</v>
+        <v>654152.0</v>
       </c>
       <c r="GN10" t="n" s="10">
-        <v>684135.0</v>
+        <v>684637.0</v>
       </c>
       <c r="GO10" t="n" s="10">
-        <v>757730.0</v>
+        <v>760171.0</v>
       </c>
       <c r="GP10" t="n" s="10">
-        <v>681895.0</v>
+        <v>679796.0</v>
       </c>
       <c r="GQ10" t="n" s="10">
-        <v>640523.0</v>
+        <v>639463.0</v>
       </c>
       <c r="GR10" t="n" s="10">
-        <v>689286.0</v>
+        <v>691239.0</v>
       </c>
       <c r="GS10" t="n" s="10">
-        <v>679281.0</v>
+        <v>679747.0</v>
       </c>
       <c r="GT10" t="n" s="10">
-        <v>621554.0</v>
+        <v>618603.0</v>
       </c>
       <c r="GU10" t="n" s="10">
-        <v>688084.0</v>
+        <v>688353.0</v>
       </c>
       <c r="GV10" t="n" s="10">
-        <v>681985.0</v>
-      </c>
-      <c r="GW10" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX10" t="s" s="10">
-        <v>37</v>
+        <v>681074.0</v>
+      </c>
+      <c r="GW10" t="n" s="10">
+        <v>708055.0</v>
+      </c>
+      <c r="GX10" t="n" s="10">
+        <v>606495.0</v>
+      </c>
+      <c r="GY10" t="n" s="10">
+        <v>673114.0</v>
+      </c>
+      <c r="GZ10" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA10" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB10" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC10" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD10" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE10" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF10" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG10" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH10" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI10" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ10" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n" s="10">
         <v>1.6125124E7</v>
@@ -7876,48 +8235,84 @@
         <v>2.406189E7</v>
       </c>
       <c r="GM11" t="n" s="10">
-        <v>2.3526583E7</v>
+        <v>2.3428106E7</v>
       </c>
       <c r="GN11" t="n" s="10">
-        <v>2.2492741E7</v>
+        <v>2.2504543E7</v>
       </c>
       <c r="GO11" t="n" s="10">
-        <v>2.3905598E7</v>
+        <v>2.3929348E7</v>
       </c>
       <c r="GP11" t="n" s="10">
-        <v>2.4893714E7</v>
+        <v>2.5000487E7</v>
       </c>
       <c r="GQ11" t="n" s="10">
-        <v>2.5562238E7</v>
+        <v>2.5537939E7</v>
       </c>
       <c r="GR11" t="n" s="10">
-        <v>2.6798312E7</v>
+        <v>2.6960362E7</v>
       </c>
       <c r="GS11" t="n" s="10">
-        <v>2.4293137E7</v>
+        <v>2.4255396E7</v>
       </c>
       <c r="GT11" t="n" s="10">
-        <v>2.3166271E7</v>
+        <v>2.3085657E7</v>
       </c>
       <c r="GU11" t="n" s="10">
-        <v>2.3050435E7</v>
+        <v>2.3047964E7</v>
       </c>
       <c r="GV11" t="n" s="10">
-        <v>2.3344853E7</v>
-      </c>
-      <c r="GW11" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX11" t="s" s="10">
-        <v>37</v>
+        <v>2.3359637E7</v>
+      </c>
+      <c r="GW11" t="n" s="10">
+        <v>3.0511843E7</v>
+      </c>
+      <c r="GX11" t="n" s="10">
+        <v>2.4490647E7</v>
+      </c>
+      <c r="GY11" t="n" s="10">
+        <v>2.4275509E7</v>
+      </c>
+      <c r="GZ11" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA11" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB11" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC11" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD11" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE11" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF11" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG11" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH11" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI11" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ11" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s" s="13">
         <v>43</v>
-      </c>
-      <c r="B12" t="s" s="13">
-        <v>42</v>
       </c>
       <c r="C12" t="n" s="10">
         <v>9.7010833E7</v>
@@ -8496,48 +8891,84 @@
         <v>1.51489285E8</v>
       </c>
       <c r="GM12" t="n" s="10">
-        <v>1.28144504E8</v>
+        <v>1.28101555E8</v>
       </c>
       <c r="GN12" t="n" s="10">
-        <v>1.39678059E8</v>
+        <v>1.41110931E8</v>
       </c>
       <c r="GO12" t="n" s="10">
-        <v>1.74085786E8</v>
+        <v>1.77026292E8</v>
       </c>
       <c r="GP12" t="n" s="10">
-        <v>1.51072246E8</v>
+        <v>1.5262451E8</v>
       </c>
       <c r="GQ12" t="n" s="10">
-        <v>1.4464466E8</v>
+        <v>1.46827013E8</v>
       </c>
       <c r="GR12" t="n" s="10">
-        <v>1.59331829E8</v>
+        <v>1.6284042E8</v>
       </c>
       <c r="GS12" t="n" s="10">
-        <v>1.51437639E8</v>
+        <v>1.53627018E8</v>
       </c>
       <c r="GT12" t="n" s="10">
-        <v>1.36827326E8</v>
+        <v>1.38953676E8</v>
       </c>
       <c r="GU12" t="n" s="10">
-        <v>1.58606611E8</v>
+        <v>1.61475848E8</v>
       </c>
       <c r="GV12" t="n" s="10">
-        <v>1.5584338E8</v>
-      </c>
-      <c r="GW12" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX12" t="s" s="10">
-        <v>37</v>
+        <v>1.58603667E8</v>
+      </c>
+      <c r="GW12" t="n" s="10">
+        <v>1.76042003E8</v>
+      </c>
+      <c r="GX12" t="n" s="10">
+        <v>1.6994893E8</v>
+      </c>
+      <c r="GY12" t="n" s="10">
+        <v>1.54387145E8</v>
+      </c>
+      <c r="GZ12" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA12" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB12" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC12" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD12" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE12" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF12" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG12" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH12" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI12" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ12" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n" s="10">
         <v>5.5813656E7</v>
@@ -9116,48 +9547,84 @@
         <v>7.3897956E7</v>
       </c>
       <c r="GM13" t="n" s="10">
-        <v>6.2469262E7</v>
+        <v>6.2879201E7</v>
       </c>
       <c r="GN13" t="n" s="10">
-        <v>6.6928842E7</v>
+        <v>6.8241776E7</v>
       </c>
       <c r="GO13" t="n" s="10">
-        <v>8.349534E7</v>
+        <v>8.5882388E7</v>
       </c>
       <c r="GP13" t="n" s="10">
-        <v>7.3049883E7</v>
+        <v>7.463046E7</v>
       </c>
       <c r="GQ13" t="n" s="10">
-        <v>7.1142654E7</v>
+        <v>7.3239834E7</v>
       </c>
       <c r="GR13" t="n" s="10">
-        <v>7.802029E7</v>
+        <v>8.0627079E7</v>
       </c>
       <c r="GS13" t="n" s="10">
-        <v>7.5723105E7</v>
+        <v>7.7843109E7</v>
       </c>
       <c r="GT13" t="n" s="10">
-        <v>6.9581335E7</v>
+        <v>7.1389894E7</v>
       </c>
       <c r="GU13" t="n" s="10">
-        <v>7.8471668E7</v>
+        <v>8.086953E7</v>
       </c>
       <c r="GV13" t="n" s="10">
-        <v>7.7719036E7</v>
-      </c>
-      <c r="GW13" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX13" t="s" s="10">
-        <v>37</v>
+        <v>8.0599407E7</v>
+      </c>
+      <c r="GW13" t="n" s="10">
+        <v>8.7052849E7</v>
+      </c>
+      <c r="GX13" t="n" s="10">
+        <v>8.4779985E7</v>
+      </c>
+      <c r="GY13" t="n" s="10">
+        <v>7.8023535E7</v>
+      </c>
+      <c r="GZ13" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA13" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB13" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC13" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD13" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE13" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF13" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG13" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH13" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI13" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ13" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n" s="10">
         <v>4.1197177E7</v>
@@ -9736,48 +10203,84 @@
         <v>7.7591329E7</v>
       </c>
       <c r="GM14" t="n" s="10">
-        <v>6.5675241E7</v>
+        <v>6.5222354E7</v>
       </c>
       <c r="GN14" t="n" s="10">
-        <v>7.2749217E7</v>
+        <v>7.2869155E7</v>
       </c>
       <c r="GO14" t="n" s="10">
-        <v>9.0590446E7</v>
+        <v>9.1143904E7</v>
       </c>
       <c r="GP14" t="n" s="10">
-        <v>7.8022363E7</v>
+        <v>7.7994049E7</v>
       </c>
       <c r="GQ14" t="n" s="10">
-        <v>7.3502005E7</v>
+        <v>7.3587179E7</v>
       </c>
       <c r="GR14" t="n" s="10">
-        <v>8.1311539E7</v>
+        <v>8.2213341E7</v>
       </c>
       <c r="GS14" t="n" s="10">
-        <v>7.5714535E7</v>
+        <v>7.5783909E7</v>
       </c>
       <c r="GT14" t="n" s="10">
-        <v>6.724599E7</v>
+        <v>6.7563782E7</v>
       </c>
       <c r="GU14" t="n" s="10">
-        <v>8.0134943E7</v>
+        <v>8.0606317E7</v>
       </c>
       <c r="GV14" t="n" s="10">
-        <v>7.8124344E7</v>
-      </c>
-      <c r="GW14" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX14" t="s" s="10">
-        <v>37</v>
+        <v>7.800426E7</v>
+      </c>
+      <c r="GW14" t="n" s="10">
+        <v>8.8989153E7</v>
+      </c>
+      <c r="GX14" t="n" s="10">
+        <v>8.5168945E7</v>
+      </c>
+      <c r="GY14" t="n" s="10">
+        <v>7.636361E7</v>
+      </c>
+      <c r="GZ14" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA14" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB14" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC14" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD14" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE14" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF14" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG14" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH14" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI14" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ14" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n" s="10">
         <v>2.0491863E7</v>
@@ -10356,48 +10859,84 @@
         <v>2.9338991E7</v>
       </c>
       <c r="GM15" t="n" s="10">
-        <v>2.7048379E7</v>
+        <v>2.6987696E7</v>
       </c>
       <c r="GN15" t="n" s="10">
-        <v>2.9344819E7</v>
+        <v>2.9544626E7</v>
       </c>
       <c r="GO15" t="n" s="10">
-        <v>3.5021053E7</v>
+        <v>3.5440096E7</v>
       </c>
       <c r="GP15" t="n" s="10">
-        <v>3.1059076E7</v>
+        <v>3.1092282E7</v>
       </c>
       <c r="GQ15" t="n" s="10">
-        <v>2.9776689E7</v>
+        <v>2.9894104E7</v>
       </c>
       <c r="GR15" t="n" s="10">
-        <v>3.2696403E7</v>
+        <v>3.3195749E7</v>
       </c>
       <c r="GS15" t="n" s="10">
-        <v>3.0271617E7</v>
+        <v>3.0395611E7</v>
       </c>
       <c r="GT15" t="n" s="10">
-        <v>2.635147E7</v>
+        <v>2.6055488E7</v>
       </c>
       <c r="GU15" t="n" s="10">
-        <v>3.1915044E7</v>
+        <v>3.2031494E7</v>
       </c>
       <c r="GV15" t="n" s="10">
-        <v>3.086372E7</v>
-      </c>
-      <c r="GW15" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX15" t="s" s="10">
-        <v>37</v>
+        <v>3.0938852E7</v>
+      </c>
+      <c r="GW15" t="n" s="10">
+        <v>3.5005762E7</v>
+      </c>
+      <c r="GX15" t="n" s="10">
+        <v>3.3317416E7</v>
+      </c>
+      <c r="GY15" t="n" s="10">
+        <v>3.2162076E7</v>
+      </c>
+      <c r="GZ15" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA15" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB15" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC15" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD15" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE15" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF15" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG15" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH15" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI15" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ15" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n" s="10">
         <v>2.0705314E7</v>
@@ -10976,45 +11515,81 @@
         <v>4.8252338E7</v>
       </c>
       <c r="GM16" t="n" s="10">
-        <v>3.8626862E7</v>
+        <v>3.8234658E7</v>
       </c>
       <c r="GN16" t="n" s="10">
-        <v>4.3404398E7</v>
+        <v>4.3324529E7</v>
       </c>
       <c r="GO16" t="n" s="10">
-        <v>5.5569393E7</v>
+        <v>5.5703808E7</v>
       </c>
       <c r="GP16" t="n" s="10">
-        <v>4.6963287E7</v>
+        <v>4.6901767E7</v>
       </c>
       <c r="GQ16" t="n" s="10">
-        <v>4.3725316E7</v>
+        <v>4.3693075E7</v>
       </c>
       <c r="GR16" t="n" s="10">
-        <v>4.8615136E7</v>
+        <v>4.9017592E7</v>
       </c>
       <c r="GS16" t="n" s="10">
-        <v>4.5442918E7</v>
+        <v>4.5388298E7</v>
       </c>
       <c r="GT16" t="n" s="10">
-        <v>4.089452E7</v>
+        <v>4.1508293E7</v>
       </c>
       <c r="GU16" t="n" s="10">
-        <v>4.82199E7</v>
+        <v>4.8574823E7</v>
       </c>
       <c r="GV16" t="n" s="10">
-        <v>4.7260624E7</v>
-      </c>
-      <c r="GW16" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX16" t="s" s="10">
-        <v>37</v>
+        <v>4.7065408E7</v>
+      </c>
+      <c r="GW16" t="n" s="10">
+        <v>5.3983392E7</v>
+      </c>
+      <c r="GX16" t="n" s="10">
+        <v>5.1851529E7</v>
+      </c>
+      <c r="GY16" t="n" s="10">
+        <v>4.4201534E7</v>
+      </c>
+      <c r="GZ16" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA16" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB16" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC16" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD16" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE16" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF16" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG16" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH16" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI16" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ16" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="33.75" customHeight="true">
       <c r="A17" t="s" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -11022,7 +11597,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n" s="10">
         <v>9665.0</v>
@@ -11601,19 +12176,19 @@
         <v>10297.0</v>
       </c>
       <c r="GM18" t="n" s="10">
-        <v>9901.0</v>
+        <v>9896.0</v>
       </c>
       <c r="GN18" t="n" s="10">
-        <v>9954.0</v>
+        <v>9953.0</v>
       </c>
       <c r="GO18" t="n" s="10">
-        <v>9992.0</v>
+        <v>9991.0</v>
       </c>
       <c r="GP18" t="n" s="10">
-        <v>9992.0</v>
+        <v>9991.0</v>
       </c>
       <c r="GQ18" t="n" s="10">
-        <v>9990.0</v>
+        <v>9989.0</v>
       </c>
       <c r="GR18" t="n" s="10">
         <v>9980.0</v>
@@ -11630,19 +12205,55 @@
       <c r="GV18" t="n" s="10">
         <v>9951.0</v>
       </c>
-      <c r="GW18" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX18" t="s" s="10">
-        <v>37</v>
+      <c r="GW18" t="n" s="10">
+        <v>9945.0</v>
+      </c>
+      <c r="GX18" t="n" s="10">
+        <v>9940.0</v>
+      </c>
+      <c r="GY18" t="n" s="10">
+        <v>9842.0</v>
+      </c>
+      <c r="GZ18" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA18" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB18" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC18" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD18" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE18" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF18" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG18" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH18" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI18" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ18" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n" s="10">
         <v>1955802.0</v>
@@ -12221,48 +12832,84 @@
         <v>2049634.0</v>
       </c>
       <c r="GM19" t="n" s="10">
-        <v>2034254.0</v>
+        <v>2035536.0</v>
       </c>
       <c r="GN19" t="n" s="10">
-        <v>2031420.0</v>
+        <v>2033049.0</v>
       </c>
       <c r="GO19" t="n" s="10">
-        <v>2034283.0</v>
+        <v>2036842.0</v>
       </c>
       <c r="GP19" t="n" s="10">
-        <v>2032895.0</v>
+        <v>2035126.0</v>
       </c>
       <c r="GQ19" t="n" s="10">
-        <v>2031834.0</v>
+        <v>2034827.0</v>
       </c>
       <c r="GR19" t="n" s="10">
-        <v>2030729.0</v>
+        <v>2033923.0</v>
       </c>
       <c r="GS19" t="n" s="10">
-        <v>2030932.0</v>
+        <v>2035192.0</v>
       </c>
       <c r="GT19" t="n" s="10">
-        <v>2043122.0</v>
+        <v>2043450.0</v>
       </c>
       <c r="GU19" t="n" s="10">
-        <v>2051950.0</v>
+        <v>2052008.0</v>
       </c>
       <c r="GV19" t="n" s="10">
-        <v>2050435.0</v>
-      </c>
-      <c r="GW19" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX19" t="s" s="10">
-        <v>37</v>
+        <v>2049078.0</v>
+      </c>
+      <c r="GW19" t="n" s="10">
+        <v>2049934.0</v>
+      </c>
+      <c r="GX19" t="n" s="10">
+        <v>2044551.0</v>
+      </c>
+      <c r="GY19" t="n" s="10">
+        <v>2048935.0</v>
+      </c>
+      <c r="GZ19" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA19" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB19" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC19" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD19" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE19" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF19" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG19" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH19" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI19" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ19" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s" s="13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n" s="10">
         <v>252823.0</v>
@@ -12841,48 +13488,84 @@
         <v>225347.0</v>
       </c>
       <c r="GM20" t="n" s="10">
-        <v>251872.0</v>
+        <v>253158.0</v>
       </c>
       <c r="GN20" t="n" s="10">
-        <v>258728.0</v>
+        <v>259587.0</v>
       </c>
       <c r="GO20" t="n" s="10">
-        <v>286301.0</v>
+        <v>288153.0</v>
       </c>
       <c r="GP20" t="n" s="10">
-        <v>258617.0</v>
+        <v>258370.0</v>
       </c>
       <c r="GQ20" t="n" s="10">
-        <v>245402.0</v>
+        <v>245153.0</v>
       </c>
       <c r="GR20" t="n" s="10">
-        <v>261335.0</v>
+        <v>262285.0</v>
       </c>
       <c r="GS20" t="n" s="10">
-        <v>256896.0</v>
+        <v>257092.0</v>
       </c>
       <c r="GT20" t="n" s="10">
-        <v>241461.0</v>
+        <v>240698.0</v>
       </c>
       <c r="GU20" t="n" s="10">
-        <v>261936.0</v>
+        <v>260610.0</v>
       </c>
       <c r="GV20" t="n" s="10">
-        <v>257513.0</v>
-      </c>
-      <c r="GW20" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX20" t="s" s="10">
-        <v>37</v>
+        <v>257346.0</v>
+      </c>
+      <c r="GW20" t="n" s="10">
+        <v>265719.0</v>
+      </c>
+      <c r="GX20" t="n" s="10">
+        <v>229049.0</v>
+      </c>
+      <c r="GY20" t="n" s="10">
+        <v>257954.0</v>
+      </c>
+      <c r="GZ20" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA20" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB20" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC20" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD20" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE20" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF20" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG20" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH20" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI20" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ20" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="n" s="10">
         <v>6066030.0</v>
@@ -13461,48 +14144,84 @@
         <v>8597171.0</v>
       </c>
       <c r="GM21" t="n" s="10">
-        <v>8379787.0</v>
+        <v>8381005.0</v>
       </c>
       <c r="GN21" t="n" s="10">
-        <v>8008512.0</v>
+        <v>8033312.0</v>
       </c>
       <c r="GO21" t="n" s="10">
-        <v>8501816.0</v>
+        <v>8517143.0</v>
       </c>
       <c r="GP21" t="n" s="10">
-        <v>8758980.0</v>
+        <v>8842481.0</v>
       </c>
       <c r="GQ21" t="n" s="10">
-        <v>8773283.0</v>
+        <v>8755957.0</v>
       </c>
       <c r="GR21" t="n" s="10">
-        <v>9190785.0</v>
+        <v>9232813.0</v>
       </c>
       <c r="GS21" t="n" s="10">
-        <v>8537899.0</v>
+        <v>8535727.0</v>
       </c>
       <c r="GT21" t="n" s="10">
-        <v>8166509.0</v>
+        <v>8144310.0</v>
       </c>
       <c r="GU21" t="n" s="10">
-        <v>8204065.0</v>
+        <v>8203441.0</v>
       </c>
       <c r="GV21" t="n" s="10">
-        <v>8372800.0</v>
-      </c>
-      <c r="GW21" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX21" t="s" s="10">
-        <v>37</v>
+        <v>8369313.0</v>
+      </c>
+      <c r="GW21" t="n" s="10">
+        <v>1.0910241E7</v>
+      </c>
+      <c r="GX21" t="n" s="10">
+        <v>8729952.0</v>
+      </c>
+      <c r="GY21" t="n" s="10">
+        <v>8747414.0</v>
+      </c>
+      <c r="GZ21" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA21" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB21" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC21" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD21" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE21" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF21" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG21" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH21" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI21" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ21" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s" s="13">
         <v>43</v>
-      </c>
-      <c r="B22" t="s" s="13">
-        <v>42</v>
       </c>
       <c r="C22" t="n" s="10">
         <v>3.4332057E7</v>
@@ -14081,48 +14800,84 @@
         <v>4.3318487E7</v>
       </c>
       <c r="GM22" t="n" s="10">
-        <v>4.7106643E7</v>
+        <v>4.7273697E7</v>
       </c>
       <c r="GN22" t="n" s="10">
-        <v>4.9225422E7</v>
+        <v>4.9319468E7</v>
       </c>
       <c r="GO22" t="n" s="10">
-        <v>5.9148473E7</v>
+        <v>5.9575424E7</v>
       </c>
       <c r="GP22" t="n" s="10">
-        <v>5.3880418E7</v>
+        <v>5.3988945E7</v>
       </c>
       <c r="GQ22" t="n" s="10">
-        <v>5.2265532E7</v>
+        <v>5.2354534E7</v>
       </c>
       <c r="GR22" t="n" s="10">
-        <v>5.7405504E7</v>
+        <v>5.7738072E7</v>
       </c>
       <c r="GS22" t="n" s="10">
-        <v>5.4320125E7</v>
+        <v>5.4463118E7</v>
       </c>
       <c r="GT22" t="n" s="10">
-        <v>5.1931949E7</v>
+        <v>5.1488567E7</v>
       </c>
       <c r="GU22" t="n" s="10">
-        <v>5.6434033E7</v>
+        <v>5.667038E7</v>
       </c>
       <c r="GV22" t="n" s="10">
-        <v>5.5791669E7</v>
-      </c>
-      <c r="GW22" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX22" t="s" s="10">
-        <v>37</v>
+        <v>5.5915355E7</v>
+      </c>
+      <c r="GW22" t="n" s="10">
+        <v>5.8831149E7</v>
+      </c>
+      <c r="GX22" t="n" s="10">
+        <v>5.1442811E7</v>
+      </c>
+      <c r="GY22" t="n" s="10">
+        <v>5.8346548E7</v>
+      </c>
+      <c r="GZ22" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA22" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB22" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC22" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD22" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE22" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF22" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG22" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH22" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI22" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ22" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="n" s="10">
         <v>1.9180864E7</v>
@@ -14701,48 +15456,84 @@
         <v>2.1848443E7</v>
       </c>
       <c r="GM23" t="n" s="10">
-        <v>2.3755445E7</v>
+        <v>2.3741003E7</v>
       </c>
       <c r="GN23" t="n" s="10">
-        <v>2.5211335E7</v>
+        <v>2.5112136E7</v>
       </c>
       <c r="GO23" t="n" s="10">
-        <v>3.0913102E7</v>
+        <v>3.0874558E7</v>
       </c>
       <c r="GP23" t="n" s="10">
-        <v>2.7811884E7</v>
+        <v>2.7841386E7</v>
       </c>
       <c r="GQ23" t="n" s="10">
-        <v>2.7146028E7</v>
+        <v>2.7162798E7</v>
       </c>
       <c r="GR23" t="n" s="10">
-        <v>2.9857508E7</v>
+        <v>2.9983847E7</v>
       </c>
       <c r="GS23" t="n" s="10">
-        <v>2.8770137E7</v>
+        <v>2.8835306E7</v>
       </c>
       <c r="GT23" t="n" s="10">
-        <v>2.7116458E7</v>
+        <v>2.706103E7</v>
       </c>
       <c r="GU23" t="n" s="10">
-        <v>2.9472577E7</v>
+        <v>2.9618701E7</v>
       </c>
       <c r="GV23" t="n" s="10">
-        <v>2.9442768E7</v>
-      </c>
-      <c r="GW23" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX23" t="s" s="10">
-        <v>37</v>
+        <v>2.9497318E7</v>
+      </c>
+      <c r="GW23" t="n" s="10">
+        <v>3.088666E7</v>
+      </c>
+      <c r="GX23" t="n" s="10">
+        <v>2.6068522E7</v>
+      </c>
+      <c r="GY23" t="n" s="10">
+        <v>2.9894499E7</v>
+      </c>
+      <c r="GZ23" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA23" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB23" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC23" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD23" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE23" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF23" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG23" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH23" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI23" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ23" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="n" s="10">
         <v>1.5151193E7</v>
@@ -15321,48 +16112,84 @@
         <v>2.1470045E7</v>
       </c>
       <c r="GM24" t="n" s="10">
-        <v>2.3351197E7</v>
+        <v>2.3532694E7</v>
       </c>
       <c r="GN24" t="n" s="10">
-        <v>2.4014087E7</v>
+        <v>2.4207332E7</v>
       </c>
       <c r="GO24" t="n" s="10">
-        <v>2.8235371E7</v>
+        <v>2.8700865E7</v>
       </c>
       <c r="GP24" t="n" s="10">
-        <v>2.6068534E7</v>
+        <v>2.6147559E7</v>
       </c>
       <c r="GQ24" t="n" s="10">
-        <v>2.5119505E7</v>
+        <v>2.5191736E7</v>
       </c>
       <c r="GR24" t="n" s="10">
-        <v>2.7547996E7</v>
+        <v>2.7754225E7</v>
       </c>
       <c r="GS24" t="n" s="10">
-        <v>2.5549988E7</v>
+        <v>2.5627812E7</v>
       </c>
       <c r="GT24" t="n" s="10">
-        <v>2.4815491E7</v>
+        <v>2.4427537E7</v>
       </c>
       <c r="GU24" t="n" s="10">
-        <v>2.6961456E7</v>
+        <v>2.7051679E7</v>
       </c>
       <c r="GV24" t="n" s="10">
-        <v>2.63489E7</v>
-      </c>
-      <c r="GW24" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX24" t="s" s="10">
-        <v>37</v>
+        <v>2.6418037E7</v>
+      </c>
+      <c r="GW24" t="n" s="10">
+        <v>2.7944488E7</v>
+      </c>
+      <c r="GX24" t="n" s="10">
+        <v>2.5374289E7</v>
+      </c>
+      <c r="GY24" t="n" s="10">
+        <v>2.8452048E7</v>
+      </c>
+      <c r="GZ24" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA24" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB24" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC24" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD24" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE24" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF24" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG24" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH24" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI24" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ24" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" t="n" s="10">
         <v>8266570.0</v>
@@ -15941,48 +16768,84 @@
         <v>9446199.0</v>
       </c>
       <c r="GM25" t="n" s="10">
-        <v>1.0927699E7</v>
+        <v>1.1026862E7</v>
       </c>
       <c r="GN25" t="n" s="10">
-        <v>1.1303129E7</v>
+        <v>1.1446626E7</v>
       </c>
       <c r="GO25" t="n" s="10">
-        <v>1.3146719E7</v>
+        <v>1.3448463E7</v>
       </c>
       <c r="GP25" t="n" s="10">
-        <v>1.2304265E7</v>
+        <v>1.2332329E7</v>
       </c>
       <c r="GQ25" t="n" s="10">
-        <v>1.1934773E7</v>
+        <v>1.1957064E7</v>
       </c>
       <c r="GR25" t="n" s="10">
-        <v>1.2958708E7</v>
+        <v>1.3061536E7</v>
       </c>
       <c r="GS25" t="n" s="10">
-        <v>1.2110768E7</v>
+        <v>1.2146891E7</v>
       </c>
       <c r="GT25" t="n" s="10">
-        <v>1.1036763E7</v>
+        <v>1.0705001E7</v>
       </c>
       <c r="GU25" t="n" s="10">
-        <v>1.2751998E7</v>
+        <v>1.2769149E7</v>
       </c>
       <c r="GV25" t="n" s="10">
-        <v>1.2485168E7</v>
-      </c>
-      <c r="GW25" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX25" t="s" s="10">
-        <v>37</v>
+        <v>1.2519413E7</v>
+      </c>
+      <c r="GW25" t="n" s="10">
+        <v>1.3073603E7</v>
+      </c>
+      <c r="GX25" t="n" s="10">
+        <v>1.1149082E7</v>
+      </c>
+      <c r="GY25" t="n" s="10">
+        <v>1.3812255E7</v>
+      </c>
+      <c r="GZ25" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA25" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB25" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC25" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD25" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE25" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF25" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG25" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH25" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI25" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ25" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="n" s="10">
         <v>6884623.0</v>
@@ -16561,45 +17424,81 @@
         <v>1.2023845E7</v>
       </c>
       <c r="GM26" t="n" s="10">
-        <v>1.2423499E7</v>
+        <v>1.2505832E7</v>
       </c>
       <c r="GN26" t="n" s="10">
-        <v>1.2710958E7</v>
+        <v>1.2760706E7</v>
       </c>
       <c r="GO26" t="n" s="10">
-        <v>1.5088652E7</v>
+        <v>1.5252403E7</v>
       </c>
       <c r="GP26" t="n" s="10">
-        <v>1.3764269E7</v>
+        <v>1.381523E7</v>
       </c>
       <c r="GQ26" t="n" s="10">
-        <v>1.3184731E7</v>
+        <v>1.3234672E7</v>
       </c>
       <c r="GR26" t="n" s="10">
-        <v>1.4589288E7</v>
+        <v>1.4692689E7</v>
       </c>
       <c r="GS26" t="n" s="10">
-        <v>1.343922E7</v>
+        <v>1.348092E7</v>
       </c>
       <c r="GT26" t="n" s="10">
-        <v>1.3778728E7</v>
+        <v>1.3722535E7</v>
       </c>
       <c r="GU26" t="n" s="10">
-        <v>1.4209459E7</v>
+        <v>1.428253E7</v>
       </c>
       <c r="GV26" t="n" s="10">
-        <v>1.3863732E7</v>
-      </c>
-      <c r="GW26" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX26" t="s" s="10">
-        <v>37</v>
+        <v>1.3898625E7</v>
+      </c>
+      <c r="GW26" t="n" s="10">
+        <v>1.4870886E7</v>
+      </c>
+      <c r="GX26" t="n" s="10">
+        <v>1.4225206E7</v>
+      </c>
+      <c r="GY26" t="n" s="10">
+        <v>1.4639794E7</v>
+      </c>
+      <c r="GZ26" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA26" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB26" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC26" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD26" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE26" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF26" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG26" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH26" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI26" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ26" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="33.75" customHeight="true">
       <c r="A27" t="s" s="14">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -16607,7 +17506,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="n" s="10">
         <v>7122.0</v>
@@ -17186,25 +18085,25 @@
         <v>7914.0</v>
       </c>
       <c r="GM28" t="n" s="10">
-        <v>7715.0</v>
+        <v>7704.0</v>
       </c>
       <c r="GN28" t="n" s="10">
-        <v>7753.0</v>
+        <v>7747.0</v>
       </c>
       <c r="GO28" t="n" s="10">
+        <v>7776.0</v>
+      </c>
+      <c r="GP28" t="n" s="10">
+        <v>7783.0</v>
+      </c>
+      <c r="GQ28" t="n" s="10">
         <v>7782.0</v>
       </c>
-      <c r="GP28" t="n" s="10">
-        <v>7785.0</v>
-      </c>
-      <c r="GQ28" t="n" s="10">
-        <v>7783.0</v>
-      </c>
       <c r="GR28" t="n" s="10">
-        <v>7779.0</v>
+        <v>7778.0</v>
       </c>
       <c r="GS28" t="n" s="10">
-        <v>7776.0</v>
+        <v>7775.0</v>
       </c>
       <c r="GT28" t="n" s="10">
         <v>7766.0</v>
@@ -17215,19 +18114,55 @@
       <c r="GV28" t="n" s="10">
         <v>7761.0</v>
       </c>
-      <c r="GW28" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX28" t="s" s="10">
-        <v>37</v>
+      <c r="GW28" t="n" s="10">
+        <v>7752.0</v>
+      </c>
+      <c r="GX28" t="n" s="10">
+        <v>7747.0</v>
+      </c>
+      <c r="GY28" t="n" s="10">
+        <v>7628.0</v>
+      </c>
+      <c r="GZ28" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA28" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB28" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC28" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD28" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE28" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF28" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG28" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH28" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI28" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ28" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" t="n" s="10">
         <v>2118302.0</v>
@@ -17806,48 +18741,84 @@
         <v>2445152.0</v>
       </c>
       <c r="GM29" t="n" s="10">
-        <v>2419802.0</v>
+        <v>2413836.0</v>
       </c>
       <c r="GN29" t="n" s="10">
-        <v>2415995.0</v>
+        <v>2414378.0</v>
       </c>
       <c r="GO29" t="n" s="10">
-        <v>2417309.0</v>
+        <v>2415641.0</v>
       </c>
       <c r="GP29" t="n" s="10">
-        <v>2413931.0</v>
+        <v>2413263.0</v>
       </c>
       <c r="GQ29" t="n" s="10">
-        <v>2411570.0</v>
+        <v>2410648.0</v>
       </c>
       <c r="GR29" t="n" s="10">
-        <v>2414182.0</v>
+        <v>2411992.0</v>
       </c>
       <c r="GS29" t="n" s="10">
-        <v>2414404.0</v>
+        <v>2413054.0</v>
       </c>
       <c r="GT29" t="n" s="10">
-        <v>2414829.0</v>
+        <v>2413402.0</v>
       </c>
       <c r="GU29" t="n" s="10">
-        <v>2425779.0</v>
+        <v>2425200.0</v>
       </c>
       <c r="GV29" t="n" s="10">
-        <v>2421729.0</v>
-      </c>
-      <c r="GW29" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX29" t="s" s="10">
-        <v>37</v>
+        <v>2422233.0</v>
+      </c>
+      <c r="GW29" t="n" s="10">
+        <v>2421828.0</v>
+      </c>
+      <c r="GX29" t="n" s="10">
+        <v>2415074.0</v>
+      </c>
+      <c r="GY29" t="n" s="10">
+        <v>2402733.0</v>
+      </c>
+      <c r="GZ29" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA29" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB29" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC29" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD29" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE29" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF29" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG29" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH29" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI29" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ29" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s" s="13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="n" s="10">
         <v>264849.0</v>
@@ -18426,48 +19397,84 @@
         <v>248617.0</v>
       </c>
       <c r="GM30" t="n" s="10">
-        <v>276399.0</v>
+        <v>276756.0</v>
       </c>
       <c r="GN30" t="n" s="10">
-        <v>299690.0</v>
+        <v>299944.0</v>
       </c>
       <c r="GO30" t="n" s="10">
-        <v>333738.0</v>
+        <v>334375.0</v>
       </c>
       <c r="GP30" t="n" s="10">
-        <v>295666.0</v>
+        <v>294537.0</v>
       </c>
       <c r="GQ30" t="n" s="10">
-        <v>272241.0</v>
+        <v>271850.0</v>
       </c>
       <c r="GR30" t="n" s="10">
-        <v>296858.0</v>
+        <v>297417.0</v>
       </c>
       <c r="GS30" t="n" s="10">
-        <v>292728.0</v>
+        <v>292791.0</v>
       </c>
       <c r="GT30" t="n" s="10">
-        <v>254539.0</v>
+        <v>252626.0</v>
       </c>
       <c r="GU30" t="n" s="10">
-        <v>293215.0</v>
+        <v>294880.0</v>
       </c>
       <c r="GV30" t="n" s="10">
-        <v>293375.0</v>
-      </c>
-      <c r="GW30" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX30" t="s" s="10">
-        <v>37</v>
+        <v>292830.0</v>
+      </c>
+      <c r="GW30" t="n" s="10">
+        <v>306846.0</v>
+      </c>
+      <c r="GX30" t="n" s="10">
+        <v>253959.0</v>
+      </c>
+      <c r="GY30" t="n" s="10">
+        <v>286272.0</v>
+      </c>
+      <c r="GZ30" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA30" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB30" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC30" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD30" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE30" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF30" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG30" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH30" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI30" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ30" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="n" s="10">
         <v>7324392.0</v>
@@ -19046,48 +20053,84 @@
         <v>1.1756487E7</v>
       </c>
       <c r="GM31" t="n" s="10">
-        <v>1.1676829E7</v>
+        <v>1.1603545E7</v>
       </c>
       <c r="GN31" t="n" s="10">
-        <v>1.107518E7</v>
+        <v>1.1079607E7</v>
       </c>
       <c r="GO31" t="n" s="10">
-        <v>1.1688539E7</v>
+        <v>1.169067E7</v>
       </c>
       <c r="GP31" t="n" s="10">
-        <v>1.22835E7</v>
+        <v>1.2310796E7</v>
       </c>
       <c r="GQ31" t="n" s="10">
-        <v>1.3043193E7</v>
+        <v>1.3035453E7</v>
       </c>
       <c r="GR31" t="n" s="10">
-        <v>1.3732477E7</v>
+        <v>1.3836106E7</v>
       </c>
       <c r="GS31" t="n" s="10">
-        <v>1.211749E7</v>
+        <v>1.2091674E7</v>
       </c>
       <c r="GT31" t="n" s="10">
-        <v>1.1450155E7</v>
+        <v>1.1399963E7</v>
       </c>
       <c r="GU31" t="n" s="10">
-        <v>1.1262705E7</v>
+        <v>1.1264351E7</v>
       </c>
       <c r="GV31" t="n" s="10">
-        <v>1.129098E7</v>
-      </c>
-      <c r="GW31" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX31" t="s" s="10">
-        <v>37</v>
+        <v>1.1306304E7</v>
+      </c>
+      <c r="GW31" t="n" s="10">
+        <v>1.4661357E7</v>
+      </c>
+      <c r="GX31" t="n" s="10">
+        <v>1.1933362E7</v>
+      </c>
+      <c r="GY31" t="n" s="10">
+        <v>1.1890019E7</v>
+      </c>
+      <c r="GZ31" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA31" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB31" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC31" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD31" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE31" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF31" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG31" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH31" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI31" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ31" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s" s="13">
         <v>43</v>
-      </c>
-      <c r="B32" t="s" s="13">
-        <v>42</v>
       </c>
       <c r="C32" t="n" s="10">
         <v>3.7376096E7</v>
@@ -19666,48 +20709,84 @@
         <v>7.8521459E7</v>
       </c>
       <c r="GM32" t="n" s="10">
-        <v>5.4656281E7</v>
+        <v>5.3702187E7</v>
       </c>
       <c r="GN32" t="n" s="10">
-        <v>6.3049176E7</v>
+        <v>6.29349E7</v>
       </c>
       <c r="GO32" t="n" s="10">
-        <v>8.1440527E7</v>
+        <v>8.1720126E7</v>
       </c>
       <c r="GP32" t="n" s="10">
-        <v>6.7709774E7</v>
+        <v>6.7473502E7</v>
       </c>
       <c r="GQ32" t="n" s="10">
-        <v>6.2882103E7</v>
+        <v>6.2820639E7</v>
       </c>
       <c r="GR32" t="n" s="10">
-        <v>7.0258842E7</v>
+        <v>7.0894891E7</v>
       </c>
       <c r="GS32" t="n" s="10">
-        <v>6.5471211E7</v>
+        <v>6.5247589E7</v>
       </c>
       <c r="GT32" t="n" s="10">
-        <v>5.3663406E7</v>
+        <v>5.4155347E7</v>
       </c>
       <c r="GU32" t="n" s="10">
-        <v>6.7543705E7</v>
+        <v>6.791728E7</v>
       </c>
       <c r="GV32" t="n" s="10">
-        <v>6.6271683E7</v>
-      </c>
-      <c r="GW32" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX32" t="s" s="10">
-        <v>37</v>
+        <v>6.5856376E7</v>
+      </c>
+      <c r="GW32" t="n" s="10">
+        <v>7.9915875E7</v>
+      </c>
+      <c r="GX32" t="n" s="10">
+        <v>8.3134592E7</v>
+      </c>
+      <c r="GY32" t="n" s="10">
+        <v>6.1552535E7</v>
+      </c>
+      <c r="GZ32" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA32" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB32" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC32" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD32" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE32" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF32" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG32" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH32" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI32" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ32" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="n" s="10">
         <v>1.6635402E7</v>
@@ -20286,48 +21365,84 @@
         <v>3.1211787E7</v>
       </c>
       <c r="GM33" t="n" s="10">
-        <v>2.0525067E7</v>
+        <v>2.0172643E7</v>
       </c>
       <c r="GN33" t="n" s="10">
-        <v>2.3207442E7</v>
+        <v>2.3202543E7</v>
       </c>
       <c r="GO33" t="n" s="10">
-        <v>2.9913473E7</v>
+        <v>3.0085955E7</v>
       </c>
       <c r="GP33" t="n" s="10">
-        <v>2.5038795E7</v>
+        <v>2.4918472E7</v>
       </c>
       <c r="GQ33" t="n" s="10">
-        <v>2.3913532E7</v>
+        <v>2.3888962E7</v>
       </c>
       <c r="GR33" t="n" s="10">
-        <v>2.6442454E7</v>
+        <v>2.6679859E7</v>
       </c>
       <c r="GS33" t="n" s="10">
-        <v>2.500376E7</v>
+        <v>2.4903563E7</v>
       </c>
       <c r="GT33" t="n" s="10">
-        <v>2.0716355E7</v>
+        <v>2.0507026E7</v>
       </c>
       <c r="GU33" t="n" s="10">
-        <v>2.5224616E7</v>
+        <v>2.5365335E7</v>
       </c>
       <c r="GV33" t="n" s="10">
-        <v>2.4627165E7</v>
-      </c>
-      <c r="GW33" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX33" t="s" s="10">
-        <v>37</v>
+        <v>2.4544627E7</v>
+      </c>
+      <c r="GW33" t="n" s="10">
+        <v>2.9389653E7</v>
+      </c>
+      <c r="GX33" t="n" s="10">
+        <v>3.3260471E7</v>
+      </c>
+      <c r="GY33" t="n" s="10">
+        <v>2.35205E7</v>
+      </c>
+      <c r="GZ33" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA33" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB33" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC33" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD33" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE33" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF33" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG33" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH33" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI33" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ33" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="n" s="10">
         <v>2.0740694E7</v>
@@ -20906,48 +22021,84 @@
         <v>4.7309672E7</v>
       </c>
       <c r="GM34" t="n" s="10">
-        <v>3.4131214E7</v>
+        <v>3.3529545E7</v>
       </c>
       <c r="GN34" t="n" s="10">
-        <v>3.9841734E7</v>
+        <v>3.9732357E7</v>
       </c>
       <c r="GO34" t="n" s="10">
-        <v>5.1527054E7</v>
+        <v>5.1634171E7</v>
       </c>
       <c r="GP34" t="n" s="10">
-        <v>4.2670979E7</v>
+        <v>4.255503E7</v>
       </c>
       <c r="GQ34" t="n" s="10">
-        <v>3.8968571E7</v>
+        <v>3.8931677E7</v>
       </c>
       <c r="GR34" t="n" s="10">
-        <v>4.3816389E7</v>
+        <v>4.4215032E7</v>
       </c>
       <c r="GS34" t="n" s="10">
-        <v>4.0467451E7</v>
+        <v>4.0344026E7</v>
       </c>
       <c r="GT34" t="n" s="10">
-        <v>3.2947051E7</v>
+        <v>3.3648321E7</v>
       </c>
       <c r="GU34" t="n" s="10">
-        <v>4.2319089E7</v>
+        <v>4.2551945E7</v>
       </c>
       <c r="GV34" t="n" s="10">
-        <v>4.1644518E7</v>
-      </c>
-      <c r="GW34" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX34" t="s" s="10">
-        <v>37</v>
+        <v>4.1311749E7</v>
+      </c>
+      <c r="GW34" t="n" s="10">
+        <v>5.0526223E7</v>
+      </c>
+      <c r="GX34" t="n" s="10">
+        <v>4.987412E7</v>
+      </c>
+      <c r="GY34" t="n" s="10">
+        <v>3.8032035E7</v>
+      </c>
+      <c r="GZ34" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA34" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB34" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC34" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD34" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE34" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF34" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG34" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH34" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI34" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ34" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="n" s="10">
         <v>9045084.0</v>
@@ -21526,48 +22677,84 @@
         <v>1.505586E7</v>
       </c>
       <c r="GM35" t="n" s="10">
-        <v>1.1683218E7</v>
+        <v>1.150494E7</v>
       </c>
       <c r="GN35" t="n" s="10">
-        <v>1.3260858E7</v>
+        <v>1.3273794E7</v>
       </c>
       <c r="GO35" t="n" s="10">
-        <v>1.6219665E7</v>
+        <v>1.626344E7</v>
       </c>
       <c r="GP35" t="n" s="10">
-        <v>1.3820597E7</v>
+        <v>1.3803969E7</v>
       </c>
       <c r="GQ35" t="n" s="10">
-        <v>1.2768739E7</v>
+        <v>1.2800965E7</v>
       </c>
       <c r="GR35" t="n" s="10">
-        <v>1.4396783E7</v>
+        <v>1.4728163E7</v>
       </c>
       <c r="GS35" t="n" s="10">
-        <v>1.2986399E7</v>
+        <v>1.2993808E7</v>
       </c>
       <c r="GT35" t="n" s="10">
-        <v>1.0367742E7</v>
+        <v>1.0356488E7</v>
       </c>
       <c r="GU35" t="n" s="10">
-        <v>1.3262361E7</v>
+        <v>1.3283441E7</v>
       </c>
       <c r="GV35" t="n" s="10">
-        <v>1.2791158E7</v>
-      </c>
-      <c r="GW35" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX35" t="s" s="10">
-        <v>37</v>
+        <v>1.2766643E7</v>
+      </c>
+      <c r="GW35" t="n" s="10">
+        <v>1.6185114E7</v>
+      </c>
+      <c r="GX35" t="n" s="10">
+        <v>1.6751323E7</v>
+      </c>
+      <c r="GY35" t="n" s="10">
+        <v>1.2843178E7</v>
+      </c>
+      <c r="GZ35" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA35" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB35" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC35" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD35" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE35" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF35" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG35" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH35" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI35" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ35" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="n" s="10">
         <v>1.169561E7</v>
@@ -22146,45 +23333,81 @@
         <v>3.2253812E7</v>
       </c>
       <c r="GM36" t="n" s="10">
-        <v>2.2447997E7</v>
+        <v>2.2024605E7</v>
       </c>
       <c r="GN36" t="n" s="10">
-        <v>2.6580876E7</v>
+        <v>2.6458563E7</v>
       </c>
       <c r="GO36" t="n" s="10">
-        <v>3.5307388E7</v>
+        <v>3.5370731E7</v>
       </c>
       <c r="GP36" t="n" s="10">
-        <v>2.8850382E7</v>
+        <v>2.8751062E7</v>
       </c>
       <c r="GQ36" t="n" s="10">
-        <v>2.6199832E7</v>
+        <v>2.6130712E7</v>
       </c>
       <c r="GR36" t="n" s="10">
-        <v>2.9419605E7</v>
+        <v>2.9486869E7</v>
       </c>
       <c r="GS36" t="n" s="10">
-        <v>2.7481052E7</v>
+        <v>2.7350218E7</v>
       </c>
       <c r="GT36" t="n" s="10">
-        <v>2.257931E7</v>
+        <v>2.3291832E7</v>
       </c>
       <c r="GU36" t="n" s="10">
-        <v>2.9056728E7</v>
+        <v>2.9268505E7</v>
       </c>
       <c r="GV36" t="n" s="10">
-        <v>2.8853359E7</v>
-      </c>
-      <c r="GW36" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX36" t="s" s="10">
-        <v>37</v>
+        <v>2.8545106E7</v>
+      </c>
+      <c r="GW36" t="n" s="10">
+        <v>3.4341109E7</v>
+      </c>
+      <c r="GX36" t="n" s="10">
+        <v>3.3122798E7</v>
+      </c>
+      <c r="GY36" t="n" s="10">
+        <v>2.5188857E7</v>
+      </c>
+      <c r="GZ36" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA36" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB36" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC36" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD36" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE36" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF36" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG36" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH36" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI36" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ36" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="33.75" customHeight="true">
       <c r="A37" t="s" s="14">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
@@ -22192,7 +23415,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n" s="10">
         <v>918.0</v>
@@ -22800,19 +24023,55 @@
       <c r="GV38" t="n" s="10">
         <v>784.0</v>
       </c>
-      <c r="GW38" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX38" t="s" s="10">
-        <v>37</v>
+      <c r="GW38" t="n" s="10">
+        <v>784.0</v>
+      </c>
+      <c r="GX38" t="n" s="10">
+        <v>784.0</v>
+      </c>
+      <c r="GY38" t="n" s="10">
+        <v>775.0</v>
+      </c>
+      <c r="GZ38" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA38" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB38" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC38" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD38" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE38" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF38" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG38" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH38" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI38" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ38" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39" t="n" s="10">
         <v>189426.0</v>
@@ -23391,48 +24650,84 @@
         <v>179058.0</v>
       </c>
       <c r="GM39" t="n" s="10">
-        <v>175204.0</v>
+        <v>174644.0</v>
       </c>
       <c r="GN39" t="n" s="10">
-        <v>175663.0</v>
+        <v>175383.0</v>
       </c>
       <c r="GO39" t="n" s="10">
-        <v>176208.0</v>
+        <v>175822.0</v>
       </c>
       <c r="GP39" t="n" s="10">
-        <v>176045.0</v>
+        <v>176064.0</v>
       </c>
       <c r="GQ39" t="n" s="10">
-        <v>176374.0</v>
+        <v>176386.0</v>
       </c>
       <c r="GR39" t="n" s="10">
-        <v>176500.0</v>
+        <v>176524.0</v>
       </c>
       <c r="GS39" t="n" s="10">
-        <v>176786.0</v>
+        <v>176766.0</v>
       </c>
       <c r="GT39" t="n" s="10">
-        <v>177777.0</v>
+        <v>177827.0</v>
       </c>
       <c r="GU39" t="n" s="10">
-        <v>179036.0</v>
+        <v>179115.0</v>
       </c>
       <c r="GV39" t="n" s="10">
-        <v>179655.0</v>
-      </c>
-      <c r="GW39" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX39" t="s" s="10">
-        <v>37</v>
+        <v>179588.0</v>
+      </c>
+      <c r="GW39" t="n" s="10">
+        <v>180079.0</v>
+      </c>
+      <c r="GX39" t="n" s="10">
+        <v>179726.0</v>
+      </c>
+      <c r="GY39" t="n" s="10">
+        <v>178656.0</v>
+      </c>
+      <c r="GZ39" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA39" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB39" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC39" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD39" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE39" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF39" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG39" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH39" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI39" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ39" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s" s="13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" t="n" s="10">
         <v>23518.0</v>
@@ -24011,48 +25306,84 @@
         <v>19205.0</v>
       </c>
       <c r="GM40" t="n" s="10">
-        <v>20637.0</v>
+        <v>20752.0</v>
       </c>
       <c r="GN40" t="n" s="10">
-        <v>21490.0</v>
+        <v>21632.0</v>
       </c>
       <c r="GO40" t="n" s="10">
-        <v>23568.0</v>
+        <v>23629.0</v>
       </c>
       <c r="GP40" t="n" s="10">
-        <v>21504.0</v>
+        <v>21478.0</v>
       </c>
       <c r="GQ40" t="n" s="10">
-        <v>20199.0</v>
+        <v>20202.0</v>
       </c>
       <c r="GR40" t="n" s="10">
-        <v>21967.0</v>
+        <v>22174.0</v>
       </c>
       <c r="GS40" t="n" s="10">
-        <v>21274.0</v>
+        <v>21412.0</v>
       </c>
       <c r="GT40" t="n" s="10">
-        <v>19733.0</v>
+        <v>19743.0</v>
       </c>
       <c r="GU40" t="n" s="10">
-        <v>22661.0</v>
+        <v>22738.0</v>
       </c>
       <c r="GV40" t="n" s="10">
-        <v>22371.0</v>
-      </c>
-      <c r="GW40" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX40" t="s" s="10">
-        <v>37</v>
+        <v>22357.0</v>
+      </c>
+      <c r="GW40" t="n" s="10">
+        <v>23203.0</v>
+      </c>
+      <c r="GX40" t="n" s="10">
+        <v>19474.0</v>
+      </c>
+      <c r="GY40" t="n" s="10">
+        <v>21799.0</v>
+      </c>
+      <c r="GZ40" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA40" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB40" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC40" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD40" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE40" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF40" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG40" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH40" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI40" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ40" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="n" s="10">
         <v>509344.0</v>
@@ -24631,48 +25962,84 @@
         <v>755822.0</v>
       </c>
       <c r="GM41" t="n" s="10">
-        <v>661121.0</v>
+        <v>655691.0</v>
       </c>
       <c r="GN41" t="n" s="10">
-        <v>650370.0</v>
+        <v>647840.0</v>
       </c>
       <c r="GO41" t="n" s="10">
-        <v>681146.0</v>
+        <v>680928.0</v>
       </c>
       <c r="GP41" t="n" s="10">
-        <v>676171.0</v>
+        <v>682501.0</v>
       </c>
       <c r="GQ41" t="n" s="10">
-        <v>736110.0</v>
+        <v>736901.0</v>
       </c>
       <c r="GR41" t="n" s="10">
-        <v>797388.0</v>
+        <v>811028.0</v>
       </c>
       <c r="GS41" t="n" s="10">
-        <v>731233.0</v>
+        <v>725844.0</v>
       </c>
       <c r="GT41" t="n" s="10">
-        <v>674700.0</v>
+        <v>669159.0</v>
       </c>
       <c r="GU41" t="n" s="10">
-        <v>680989.0</v>
+        <v>680547.0</v>
       </c>
       <c r="GV41" t="n" s="10">
-        <v>734350.0</v>
-      </c>
-      <c r="GW41" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX41" t="s" s="10">
-        <v>37</v>
+        <v>734999.0</v>
+      </c>
+      <c r="GW41" t="n" s="10">
+        <v>878093.0</v>
+      </c>
+      <c r="GX41" t="n" s="10">
+        <v>759894.0</v>
+      </c>
+      <c r="GY41" t="n" s="10">
+        <v>695109.0</v>
+      </c>
+      <c r="GZ41" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA41" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB41" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC41" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD41" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE41" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF41" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG41" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH41" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI41" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ41" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s" s="13">
         <v>43</v>
-      </c>
-      <c r="B42" t="s" s="13">
-        <v>42</v>
       </c>
       <c r="C42" t="n" s="10">
         <v>2737039.0</v>
@@ -25251,48 +26618,84 @@
         <v>3757771.0</v>
       </c>
       <c r="GM42" t="n" s="10">
-        <v>3539927.0</v>
+        <v>3533442.0</v>
       </c>
       <c r="GN42" t="n" s="10">
-        <v>3820767.0</v>
+        <v>3835040.0</v>
       </c>
       <c r="GO42" t="n" s="10">
-        <v>4396782.0</v>
+        <v>4419370.0</v>
       </c>
       <c r="GP42" t="n" s="10">
-        <v>3935386.0</v>
+        <v>3927949.0</v>
       </c>
       <c r="GQ42" t="n" s="10">
-        <v>3801177.0</v>
+        <v>3791284.0</v>
       </c>
       <c r="GR42" t="n" s="10">
-        <v>4287763.0</v>
+        <v>4303485.0</v>
       </c>
       <c r="GS42" t="n" s="10">
-        <v>3884243.0</v>
+        <v>3911765.0</v>
       </c>
       <c r="GT42" t="n" s="10">
-        <v>3528818.0</v>
+        <v>3525025.0</v>
       </c>
       <c r="GU42" t="n" s="10">
-        <v>4388352.0</v>
+        <v>4400388.0</v>
       </c>
       <c r="GV42" t="n" s="10">
-        <v>4249801.0</v>
-      </c>
-      <c r="GW42" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX42" t="s" s="10">
-        <v>37</v>
+        <v>4262403.0</v>
+      </c>
+      <c r="GW42" t="n" s="10">
+        <v>4520898.0</v>
+      </c>
+      <c r="GX42" t="n" s="10">
+        <v>3989043.0</v>
+      </c>
+      <c r="GY42" t="n" s="10">
+        <v>3954850.0</v>
+      </c>
+      <c r="GZ42" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA42" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB42" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC42" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD42" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE42" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF42" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG42" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH42" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI42" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ42" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="n" s="10">
         <v>1780948.0</v>
@@ -25871,48 +27274,84 @@
         <v>1947117.0</v>
       </c>
       <c r="GM43" t="n" s="10">
-        <v>1782899.0</v>
+        <v>1768169.0</v>
       </c>
       <c r="GN43" t="n" s="10">
-        <v>1866209.0</v>
+        <v>1872569.0</v>
       </c>
       <c r="GO43" t="n" s="10">
-        <v>2151446.0</v>
+        <v>2162615.0</v>
       </c>
       <c r="GP43" t="n" s="10">
-        <v>1880277.0</v>
+        <v>1868074.0</v>
       </c>
       <c r="GQ43" t="n" s="10">
-        <v>1803985.0</v>
+        <v>1799022.0</v>
       </c>
       <c r="GR43" t="n" s="10">
-        <v>2066529.0</v>
+        <v>2065943.0</v>
       </c>
       <c r="GS43" t="n" s="10">
-        <v>1901198.0</v>
+        <v>1906200.0</v>
       </c>
       <c r="GT43" t="n" s="10">
-        <v>1732462.0</v>
+        <v>1729964.0</v>
       </c>
       <c r="GU43" t="n" s="10">
-        <v>2146720.0</v>
+        <v>2159857.0</v>
       </c>
       <c r="GV43" t="n" s="10">
-        <v>2130146.0</v>
-      </c>
-      <c r="GW43" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX43" t="s" s="10">
-        <v>37</v>
+        <v>2140434.0</v>
+      </c>
+      <c r="GW43" t="n" s="10">
+        <v>2264793.0</v>
+      </c>
+      <c r="GX43" t="n" s="10">
+        <v>1899707.0</v>
+      </c>
+      <c r="GY43" t="n" s="10">
+        <v>1913686.0</v>
+      </c>
+      <c r="GZ43" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA43" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB43" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC43" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD43" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE43" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF43" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG43" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH43" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI43" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ43" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" t="n" s="10">
         <v>956090.0</v>
@@ -26491,48 +27930,84 @@
         <v>1810653.0</v>
       </c>
       <c r="GM44" t="n" s="10">
-        <v>1757028.0</v>
+        <v>1765272.0</v>
       </c>
       <c r="GN44" t="n" s="10">
-        <v>1954558.0</v>
+        <v>1962471.0</v>
       </c>
       <c r="GO44" t="n" s="10">
-        <v>2245336.0</v>
+        <v>2256755.0</v>
       </c>
       <c r="GP44" t="n" s="10">
-        <v>2055109.0</v>
+        <v>2059875.0</v>
       </c>
       <c r="GQ44" t="n" s="10">
-        <v>1997192.0</v>
+        <v>1992262.0</v>
       </c>
       <c r="GR44" t="n" s="10">
-        <v>2221234.0</v>
+        <v>2237542.0</v>
       </c>
       <c r="GS44" t="n" s="10">
-        <v>1983044.0</v>
+        <v>2005565.0</v>
       </c>
       <c r="GT44" t="n" s="10">
-        <v>1796356.0</v>
+        <v>1795061.0</v>
       </c>
       <c r="GU44" t="n" s="10">
-        <v>2241632.0</v>
+        <v>2240531.0</v>
       </c>
       <c r="GV44" t="n" s="10">
-        <v>2119655.0</v>
-      </c>
-      <c r="GW44" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX44" t="s" s="10">
-        <v>37</v>
+        <v>2121969.0</v>
+      </c>
+      <c r="GW44" t="n" s="10">
+        <v>2256105.0</v>
+      </c>
+      <c r="GX44" t="n" s="10">
+        <v>2089336.0</v>
+      </c>
+      <c r="GY44" t="n" s="10">
+        <v>2041164.0</v>
+      </c>
+      <c r="GZ44" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA44" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB44" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC44" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD44" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE44" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF44" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG44" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH44" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI44" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ44" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" t="n" s="10">
         <v>570097.0</v>
@@ -27111,48 +28586,84 @@
         <v>900946.0</v>
       </c>
       <c r="GM45" t="n" s="10">
-        <v>933562.0</v>
+        <v>936626.0</v>
       </c>
       <c r="GN45" t="n" s="10">
-        <v>1020690.0</v>
+        <v>1029464.0</v>
       </c>
       <c r="GO45" t="n" s="10">
-        <v>1173204.0</v>
+        <v>1181557.0</v>
       </c>
       <c r="GP45" t="n" s="10">
-        <v>1102743.0</v>
+        <v>1107466.0</v>
       </c>
       <c r="GQ45" t="n" s="10">
-        <v>1101957.0</v>
+        <v>1101655.0</v>
       </c>
       <c r="GR45" t="n" s="10">
-        <v>1171126.0</v>
+        <v>1176663.0</v>
       </c>
       <c r="GS45" t="n" s="10">
-        <v>1052562.0</v>
+        <v>1055279.0</v>
       </c>
       <c r="GT45" t="n" s="10">
-        <v>916947.0</v>
+        <v>914864.0</v>
       </c>
       <c r="GU45" t="n" s="10">
-        <v>1186194.0</v>
+        <v>1188197.0</v>
       </c>
       <c r="GV45" t="n" s="10">
-        <v>1169859.0</v>
-      </c>
-      <c r="GW45" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX45" t="s" s="10">
-        <v>37</v>
+        <v>1171420.0</v>
+      </c>
+      <c r="GW45" t="n" s="10">
+        <v>1200816.0</v>
+      </c>
+      <c r="GX45" t="n" s="10">
+        <v>1049796.0</v>
+      </c>
+      <c r="GY45" t="n" s="10">
+        <v>1088659.0</v>
+      </c>
+      <c r="GZ45" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA45" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB45" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC45" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD45" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE45" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF45" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG45" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH45" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI45" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ45" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" t="n" s="10">
         <v>385993.0</v>
@@ -27731,45 +29242,81 @@
         <v>909707.0</v>
       </c>
       <c r="GM46" t="n" s="10">
-        <v>823466.0</v>
+        <v>828646.0</v>
       </c>
       <c r="GN46" t="n" s="10">
-        <v>933868.0</v>
+        <v>933007.0</v>
       </c>
       <c r="GO46" t="n" s="10">
-        <v>1072132.0</v>
+        <v>1075198.0</v>
       </c>
       <c r="GP46" t="n" s="10">
-        <v>952366.0</v>
+        <v>952409.0</v>
       </c>
       <c r="GQ46" t="n" s="10">
-        <v>895235.0</v>
+        <v>890607.0</v>
       </c>
       <c r="GR46" t="n" s="10">
-        <v>1050108.0</v>
+        <v>1060879.0</v>
       </c>
       <c r="GS46" t="n" s="10">
-        <v>930482.0</v>
+        <v>950286.0</v>
       </c>
       <c r="GT46" t="n" s="10">
-        <v>879409.0</v>
+        <v>880197.0</v>
       </c>
       <c r="GU46" t="n" s="10">
-        <v>1055437.0</v>
+        <v>1052334.0</v>
       </c>
       <c r="GV46" t="n" s="10">
-        <v>949796.0</v>
-      </c>
-      <c r="GW46" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX46" t="s" s="10">
-        <v>37</v>
+        <v>950549.0</v>
+      </c>
+      <c r="GW46" t="n" s="10">
+        <v>1055288.0</v>
+      </c>
+      <c r="GX46" t="n" s="10">
+        <v>1039539.0</v>
+      </c>
+      <c r="GY46" t="n" s="10">
+        <v>952505.0</v>
+      </c>
+      <c r="GZ46" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA46" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB46" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC46" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD46" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE46" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF46" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG46" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH46" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI46" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ46" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="33.75" customHeight="true">
       <c r="A47" t="s" s="14">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -27777,7 +29324,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48" t="n" s="10">
         <v>4404.0</v>
@@ -28356,22 +29903,22 @@
         <v>4192.0</v>
       </c>
       <c r="GM48" t="n" s="10">
-        <v>4032.0</v>
+        <v>4027.0</v>
       </c>
       <c r="GN48" t="n" s="10">
+        <v>4052.0</v>
+      </c>
+      <c r="GO48" t="n" s="10">
+        <v>4062.0</v>
+      </c>
+      <c r="GP48" t="n" s="10">
         <v>4055.0</v>
       </c>
-      <c r="GO48" t="n" s="10">
-        <v>4063.0</v>
-      </c>
-      <c r="GP48" t="n" s="10">
-        <v>4056.0</v>
-      </c>
       <c r="GQ48" t="n" s="10">
-        <v>4052.0</v>
+        <v>4051.0</v>
       </c>
       <c r="GR48" t="n" s="10">
-        <v>4046.0</v>
+        <v>4045.0</v>
       </c>
       <c r="GS48" t="n" s="10">
         <v>4043.0</v>
@@ -28385,19 +29932,55 @@
       <c r="GV48" t="n" s="10">
         <v>4029.0</v>
       </c>
-      <c r="GW48" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX48" t="s" s="10">
-        <v>37</v>
+      <c r="GW48" t="n" s="10">
+        <v>4029.0</v>
+      </c>
+      <c r="GX48" t="n" s="10">
+        <v>4024.0</v>
+      </c>
+      <c r="GY48" t="n" s="10">
+        <v>3960.0</v>
+      </c>
+      <c r="GZ48" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA48" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB48" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC48" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD48" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE48" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF48" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG48" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH48" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI48" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ48" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C49" t="n" s="10">
         <v>779344.0</v>
@@ -28976,48 +30559,84 @@
         <v>808920.0</v>
       </c>
       <c r="GM49" t="n" s="10">
-        <v>813316.0</v>
+        <v>809979.0</v>
       </c>
       <c r="GN49" t="n" s="10">
-        <v>815467.0</v>
+        <v>812340.0</v>
       </c>
       <c r="GO49" t="n" s="10">
-        <v>817945.0</v>
+        <v>814724.0</v>
       </c>
       <c r="GP49" t="n" s="10">
-        <v>821485.0</v>
+        <v>820302.0</v>
       </c>
       <c r="GQ49" t="n" s="10">
-        <v>822930.0</v>
+        <v>821124.0</v>
       </c>
       <c r="GR49" t="n" s="10">
-        <v>825459.0</v>
+        <v>824935.0</v>
       </c>
       <c r="GS49" t="n" s="10">
-        <v>827452.0</v>
+        <v>827343.0</v>
       </c>
       <c r="GT49" t="n" s="10">
-        <v>830689.0</v>
+        <v>830607.0</v>
       </c>
       <c r="GU49" t="n" s="10">
-        <v>834007.0</v>
+        <v>833234.0</v>
       </c>
       <c r="GV49" t="n" s="10">
-        <v>831353.0</v>
-      </c>
-      <c r="GW49" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX49" t="s" s="10">
-        <v>37</v>
+        <v>830737.0</v>
+      </c>
+      <c r="GW49" t="n" s="10">
+        <v>831287.0</v>
+      </c>
+      <c r="GX49" t="n" s="10">
+        <v>826044.0</v>
+      </c>
+      <c r="GY49" t="n" s="10">
+        <v>821582.0</v>
+      </c>
+      <c r="GZ49" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA49" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB49" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC49" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD49" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE49" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF49" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG49" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH49" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI49" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ49" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s" s="13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C50" t="n" s="10">
         <v>101034.0</v>
@@ -29596,48 +31215,84 @@
         <v>95606.0</v>
       </c>
       <c r="GM50" t="n" s="10">
-        <v>99965.0</v>
+        <v>99403.0</v>
       </c>
       <c r="GN50" t="n" s="10">
-        <v>100146.0</v>
+        <v>99443.0</v>
       </c>
       <c r="GO50" t="n" s="10">
-        <v>109785.0</v>
+        <v>109678.0</v>
       </c>
       <c r="GP50" t="n" s="10">
-        <v>102137.0</v>
+        <v>101441.0</v>
       </c>
       <c r="GQ50" t="n" s="10">
-        <v>98861.0</v>
+        <v>98438.0</v>
       </c>
       <c r="GR50" t="n" s="10">
-        <v>105112.0</v>
+        <v>105349.0</v>
       </c>
       <c r="GS50" t="n" s="10">
-        <v>104525.0</v>
+        <v>104594.0</v>
       </c>
       <c r="GT50" t="n" s="10">
-        <v>102059.0</v>
+        <v>101775.0</v>
       </c>
       <c r="GU50" t="n" s="10">
-        <v>106378.0</v>
+        <v>106227.0</v>
       </c>
       <c r="GV50" t="n" s="10">
-        <v>104854.0</v>
-      </c>
-      <c r="GW50" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX50" t="s" s="10">
-        <v>37</v>
+        <v>104668.0</v>
+      </c>
+      <c r="GW50" t="n" s="10">
+        <v>108246.0</v>
+      </c>
+      <c r="GX50" t="n" s="10">
+        <v>100354.0</v>
+      </c>
+      <c r="GY50" t="n" s="10">
+        <v>103136.0</v>
+      </c>
+      <c r="GZ50" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA50" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB50" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC50" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD50" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE50" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF50" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG50" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH50" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI50" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ50" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" t="n" s="10">
         <v>1975302.0</v>
@@ -30216,48 +31871,84 @@
         <v>2773828.0</v>
       </c>
       <c r="GM51" t="n" s="10">
-        <v>2638533.0</v>
+        <v>2623446.0</v>
       </c>
       <c r="GN51" t="n" s="10">
-        <v>2570386.0</v>
+        <v>2557859.0</v>
       </c>
       <c r="GO51" t="n" s="10">
-        <v>2851671.0</v>
+        <v>2854212.0</v>
       </c>
       <c r="GP51" t="n" s="10">
-        <v>2970267.0</v>
+        <v>2969461.0</v>
       </c>
       <c r="GQ51" t="n" s="10">
-        <v>2831202.0</v>
+        <v>2831175.0</v>
       </c>
       <c r="GR51" t="n" s="10">
-        <v>2904036.0</v>
+        <v>2906789.0</v>
       </c>
       <c r="GS51" t="n" s="10">
-        <v>2741157.0</v>
+        <v>2736792.0</v>
       </c>
       <c r="GT51" t="n" s="10">
-        <v>2712951.0</v>
+        <v>2710290.0</v>
       </c>
       <c r="GU51" t="n" s="10">
-        <v>2736503.0</v>
+        <v>2733459.0</v>
       </c>
       <c r="GV51" t="n" s="10">
-        <v>2759400.0</v>
-      </c>
-      <c r="GW51" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX51" t="s" s="10">
-        <v>37</v>
+        <v>2761659.0</v>
+      </c>
+      <c r="GW51" t="n" s="10">
+        <v>3815539.0</v>
+      </c>
+      <c r="GX51" t="n" s="10">
+        <v>2896585.0</v>
+      </c>
+      <c r="GY51" t="n" s="10">
+        <v>2778779.0</v>
+      </c>
+      <c r="GZ51" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA51" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB51" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC51" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD51" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE51" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF51" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG51" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH51" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI51" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ51" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s" s="13">
         <v>43</v>
-      </c>
-      <c r="B52" t="s" s="13">
-        <v>42</v>
       </c>
       <c r="C52" t="n" s="10">
         <v>1.5846169E7</v>
@@ -30836,48 +32527,84 @@
         <v>2.1345485E7</v>
       </c>
       <c r="GM52" t="n" s="10">
-        <v>1.8823114E7</v>
+        <v>1.8649521E7</v>
       </c>
       <c r="GN52" t="n" s="10">
-        <v>1.9325877E7</v>
+        <v>1.9222495E7</v>
       </c>
       <c r="GO52" t="n" s="10">
-        <v>2.364377E7</v>
+        <v>2.372327E7</v>
       </c>
       <c r="GP52" t="n" s="10">
-        <v>2.0454256E7</v>
+        <v>2.0314789E7</v>
       </c>
       <c r="GQ52" t="n" s="10">
-        <v>2.0548984E7</v>
+        <v>2.0862656E7</v>
       </c>
       <c r="GR52" t="n" s="10">
-        <v>2.1939502E7</v>
+        <v>2.2506506E7</v>
       </c>
       <c r="GS52" t="n" s="10">
-        <v>2.184279E7</v>
+        <v>2.1896533E7</v>
       </c>
       <c r="GT52" t="n" s="10">
-        <v>2.1725763E7</v>
+        <v>2.1672727E7</v>
       </c>
       <c r="GU52" t="n" s="10">
-        <v>2.4018898E7</v>
+        <v>2.4117309E7</v>
       </c>
       <c r="GV52" t="n" s="10">
-        <v>2.2447392E7</v>
-      </c>
-      <c r="GW52" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX52" t="s" s="10">
-        <v>37</v>
+        <v>2.2477649E7</v>
+      </c>
+      <c r="GW52" t="n" s="10">
+        <v>2.3180762E7</v>
+      </c>
+      <c r="GX52" t="n" s="10">
+        <v>2.2738202E7</v>
+      </c>
+      <c r="GY52" t="n" s="10">
+        <v>2.1665025E7</v>
+      </c>
+      <c r="GZ52" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA52" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB52" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC52" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD52" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE52" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF52" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG52" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH52" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI52" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ52" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C53" t="n" s="10">
         <v>1.1808423E7</v>
@@ -31456,48 +33183,84 @@
         <v>1.4868888E7</v>
       </c>
       <c r="GM53" t="n" s="10">
-        <v>1.2852895E7</v>
+        <v>1.2699491E7</v>
       </c>
       <c r="GN53" t="n" s="10">
-        <v>1.2917919E7</v>
+        <v>1.2824111E7</v>
       </c>
       <c r="GO53" t="n" s="10">
-        <v>1.575089E7</v>
+        <v>1.5818587E7</v>
       </c>
       <c r="GP53" t="n" s="10">
-        <v>1.3805124E7</v>
+        <v>1.3693779E7</v>
       </c>
       <c r="GQ53" t="n" s="10">
-        <v>1.3740978E7</v>
+        <v>1.4031626E7</v>
       </c>
       <c r="GR53" t="n" s="10">
-        <v>1.48642E7</v>
+        <v>1.5187935E7</v>
       </c>
       <c r="GS53" t="n" s="10">
-        <v>1.4787419E7</v>
+        <v>1.4789855E7</v>
       </c>
       <c r="GT53" t="n" s="10">
-        <v>1.4752043E7</v>
+        <v>1.4723779E7</v>
       </c>
       <c r="GU53" t="n" s="10">
-        <v>1.6090877E7</v>
+        <v>1.614268E7</v>
       </c>
       <c r="GV53" t="n" s="10">
-        <v>1.5129431E7</v>
-      </c>
-      <c r="GW53" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX53" t="s" s="10">
-        <v>37</v>
+        <v>1.516666E7</v>
+      </c>
+      <c r="GW53" t="n" s="10">
+        <v>1.5715078E7</v>
+      </c>
+      <c r="GX53" t="n" s="10">
+        <v>1.5679696E7</v>
+      </c>
+      <c r="GY53" t="n" s="10">
+        <v>1.4797423E7</v>
+      </c>
+      <c r="GZ53" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA53" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB53" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC53" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD53" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE53" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF53" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG53" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH53" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI53" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ53" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" t="n" s="10">
         <v>4037746.0</v>
@@ -32076,48 +33839,84 @@
         <v>6476597.0</v>
       </c>
       <c r="GM54" t="n" s="10">
-        <v>5970219.0</v>
+        <v>5950031.0</v>
       </c>
       <c r="GN54" t="n" s="10">
-        <v>6407958.0</v>
+        <v>6398384.0</v>
       </c>
       <c r="GO54" t="n" s="10">
-        <v>7892881.0</v>
+        <v>7904683.0</v>
       </c>
       <c r="GP54" t="n" s="10">
-        <v>6649132.0</v>
+        <v>6621009.0</v>
       </c>
       <c r="GQ54" t="n" s="10">
-        <v>6808005.0</v>
+        <v>6831031.0</v>
       </c>
       <c r="GR54" t="n" s="10">
-        <v>7075303.0</v>
+        <v>7318570.0</v>
       </c>
       <c r="GS54" t="n" s="10">
-        <v>7055371.0</v>
+        <v>7106678.0</v>
       </c>
       <c r="GT54" t="n" s="10">
-        <v>6973719.0</v>
+        <v>6948948.0</v>
       </c>
       <c r="GU54" t="n" s="10">
-        <v>7928022.0</v>
+        <v>7974630.0</v>
       </c>
       <c r="GV54" t="n" s="10">
-        <v>7317960.0</v>
-      </c>
-      <c r="GW54" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX54" t="s" s="10">
-        <v>37</v>
+        <v>7310988.0</v>
+      </c>
+      <c r="GW54" t="n" s="10">
+        <v>7465684.0</v>
+      </c>
+      <c r="GX54" t="n" s="10">
+        <v>7058506.0</v>
+      </c>
+      <c r="GY54" t="n" s="10">
+        <v>6867602.0</v>
+      </c>
+      <c r="GZ54" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA54" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB54" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC54" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD54" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE54" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF54" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG54" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH54" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI54" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ54" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C55" t="n" s="10">
         <v>2409166.0</v>
@@ -32696,48 +34495,84 @@
         <v>3664459.0</v>
       </c>
       <c r="GM55" t="n" s="10">
-        <v>3266960.0</v>
+        <v>3246285.0</v>
       </c>
       <c r="GN55" t="n" s="10">
-        <v>3443681.0</v>
+        <v>3428021.0</v>
       </c>
       <c r="GO55" t="n" s="10">
-        <v>4143324.0</v>
+        <v>4140252.0</v>
       </c>
       <c r="GP55" t="n" s="10">
-        <v>3499902.0</v>
+        <v>3472497.0</v>
       </c>
       <c r="GQ55" t="n" s="10">
-        <v>3637709.0</v>
+        <v>3653746.0</v>
       </c>
       <c r="GR55" t="n" s="10">
-        <v>3792730.0</v>
+        <v>3802387.0</v>
       </c>
       <c r="GS55" t="n" s="10">
-        <v>3749905.0</v>
+        <v>3769602.0</v>
       </c>
       <c r="GT55" t="n" s="10">
-        <v>3626592.0</v>
+        <v>3608772.0</v>
       </c>
       <c r="GU55" t="n" s="10">
-        <v>4240113.0</v>
+        <v>4263892.0</v>
       </c>
       <c r="GV55" t="n" s="10">
-        <v>3966652.0</v>
-      </c>
-      <c r="GW55" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX55" t="s" s="10">
-        <v>37</v>
+        <v>3955300.0</v>
+      </c>
+      <c r="GW55" t="n" s="10">
+        <v>4037357.0</v>
+      </c>
+      <c r="GX55" t="n" s="10">
+        <v>3870450.0</v>
+      </c>
+      <c r="GY55" t="n" s="10">
+        <v>3787529.0</v>
+      </c>
+      <c r="GZ55" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA55" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB55" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC55" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD55" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE55" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF55" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG55" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH55" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI55" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ55" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C56" t="n" s="10">
         <v>1628579.0</v>
@@ -33316,45 +35151,81 @@
         <v>2812138.0</v>
       </c>
       <c r="GM56" t="n" s="10">
-        <v>2703258.0</v>
+        <v>2703746.0</v>
       </c>
       <c r="GN56" t="n" s="10">
-        <v>2964278.0</v>
+        <v>2970363.0</v>
       </c>
       <c r="GO56" t="n" s="10">
-        <v>3749556.0</v>
+        <v>3764431.0</v>
       </c>
       <c r="GP56" t="n" s="10">
-        <v>3149230.0</v>
+        <v>3148512.0</v>
       </c>
       <c r="GQ56" t="n" s="10">
-        <v>3170297.0</v>
+        <v>3177285.0</v>
       </c>
       <c r="GR56" t="n" s="10">
-        <v>3282573.0</v>
+        <v>3516184.0</v>
       </c>
       <c r="GS56" t="n" s="10">
-        <v>3305466.0</v>
+        <v>3337077.0</v>
       </c>
       <c r="GT56" t="n" s="10">
-        <v>3347128.0</v>
+        <v>3340177.0</v>
       </c>
       <c r="GU56" t="n" s="10">
-        <v>3687909.0</v>
+        <v>3710737.0</v>
       </c>
       <c r="GV56" t="n" s="10">
-        <v>3351308.0</v>
-      </c>
-      <c r="GW56" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX56" t="s" s="10">
-        <v>37</v>
+        <v>3355689.0</v>
+      </c>
+      <c r="GW56" t="n" s="10">
+        <v>3428327.0</v>
+      </c>
+      <c r="GX56" t="n" s="10">
+        <v>3188056.0</v>
+      </c>
+      <c r="GY56" t="n" s="10">
+        <v>3080073.0</v>
+      </c>
+      <c r="GZ56" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA56" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB56" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC56" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD56" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE56" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF56" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG56" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH56" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI56" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ56" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="57" ht="33.75" customHeight="true">
       <c r="A57" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58">
@@ -33362,7 +35233,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C58" t="n" s="10">
         <v>117.0</v>
@@ -33970,19 +35841,55 @@
       <c r="GV58" t="n" s="10">
         <v>82.0</v>
       </c>
-      <c r="GW58" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX58" t="s" s="10">
-        <v>37</v>
+      <c r="GW58" t="n" s="10">
+        <v>82.0</v>
+      </c>
+      <c r="GX58" t="n" s="10">
+        <v>82.0</v>
+      </c>
+      <c r="GY58" t="n" s="10">
+        <v>82.0</v>
+      </c>
+      <c r="GZ58" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA58" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB58" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC58" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD58" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE58" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF58" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG58" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH58" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI58" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ58" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C59" t="n" s="10">
         <v>77640.0</v>
@@ -34561,48 +36468,84 @@
         <v>31310.0</v>
       </c>
       <c r="GM59" t="n" s="10">
-        <v>31258.0</v>
+        <v>30544.0</v>
       </c>
       <c r="GN59" t="n" s="10">
-        <v>30450.0</v>
+        <v>30354.0</v>
       </c>
       <c r="GO59" t="n" s="10">
-        <v>30200.0</v>
+        <v>30152.0</v>
       </c>
       <c r="GP59" t="n" s="10">
-        <v>29732.0</v>
+        <v>29736.0</v>
       </c>
       <c r="GQ59" t="n" s="10">
-        <v>29847.0</v>
+        <v>29850.0</v>
       </c>
       <c r="GR59" t="n" s="10">
-        <v>29768.0</v>
+        <v>29769.0</v>
       </c>
       <c r="GS59" t="n" s="10">
-        <v>29481.0</v>
+        <v>29483.0</v>
       </c>
       <c r="GT59" t="n" s="10">
         <v>29421.0</v>
       </c>
       <c r="GU59" t="n" s="10">
-        <v>29402.0</v>
+        <v>29405.0</v>
       </c>
       <c r="GV59" t="n" s="10">
-        <v>29226.0</v>
-      </c>
-      <c r="GW59" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX59" t="s" s="10">
-        <v>37</v>
+        <v>29227.0</v>
+      </c>
+      <c r="GW59" t="n" s="10">
+        <v>29161.0</v>
+      </c>
+      <c r="GX59" t="n" s="10">
+        <v>29047.0</v>
+      </c>
+      <c r="GY59" t="n" s="10">
+        <v>28073.0</v>
+      </c>
+      <c r="GZ59" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA59" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB59" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC59" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD59" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE59" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF59" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG59" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH59" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI59" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ59" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s" s="13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" t="n" s="10">
         <v>9778.0</v>
@@ -35181,16 +37124,16 @@
         <v>3908.0</v>
       </c>
       <c r="GM60" t="n" s="10">
-        <v>4177.0</v>
+        <v>4084.0</v>
       </c>
       <c r="GN60" t="n" s="10">
-        <v>4082.0</v>
+        <v>4031.0</v>
       </c>
       <c r="GO60" t="n" s="10">
-        <v>4338.0</v>
+        <v>4336.0</v>
       </c>
       <c r="GP60" t="n" s="10">
-        <v>3971.0</v>
+        <v>3970.0</v>
       </c>
       <c r="GQ60" t="n" s="10">
         <v>3820.0</v>
@@ -35205,24 +37148,60 @@
         <v>3762.0</v>
       </c>
       <c r="GU60" t="n" s="10">
-        <v>3895.0</v>
+        <v>3897.0</v>
       </c>
       <c r="GV60" t="n" s="10">
-        <v>3873.0</v>
-      </c>
-      <c r="GW60" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX60" t="s" s="10">
-        <v>37</v>
+        <v>3872.0</v>
+      </c>
+      <c r="GW60" t="n" s="10">
+        <v>4041.0</v>
+      </c>
+      <c r="GX60" t="n" s="10">
+        <v>3659.0</v>
+      </c>
+      <c r="GY60" t="n" s="10">
+        <v>3954.0</v>
+      </c>
+      <c r="GZ60" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA60" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB60" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC60" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD60" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE60" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF60" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG60" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH60" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI60" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ60" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" t="n" s="10">
         <v>250055.0</v>
@@ -35801,16 +37780,16 @@
         <v>178582.0</v>
       </c>
       <c r="GM61" t="n" s="10">
-        <v>170312.0</v>
+        <v>164420.0</v>
       </c>
       <c r="GN61" t="n" s="10">
-        <v>188293.0</v>
+        <v>185925.0</v>
       </c>
       <c r="GO61" t="n" s="10">
-        <v>182426.0</v>
+        <v>186394.0</v>
       </c>
       <c r="GP61" t="n" s="10">
-        <v>204795.0</v>
+        <v>195248.0</v>
       </c>
       <c r="GQ61" t="n" s="10">
         <v>178452.0</v>
@@ -35822,27 +37801,63 @@
         <v>165358.0</v>
       </c>
       <c r="GT61" t="n" s="10">
-        <v>161956.0</v>
+        <v>161935.0</v>
       </c>
       <c r="GU61" t="n" s="10">
-        <v>166173.0</v>
+        <v>166167.0</v>
       </c>
       <c r="GV61" t="n" s="10">
-        <v>187323.0</v>
-      </c>
-      <c r="GW61" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX61" t="s" s="10">
-        <v>37</v>
+        <v>187362.0</v>
+      </c>
+      <c r="GW61" t="n" s="10">
+        <v>246613.0</v>
+      </c>
+      <c r="GX61" t="n" s="10">
+        <v>170854.0</v>
+      </c>
+      <c r="GY61" t="n" s="10">
+        <v>164189.0</v>
+      </c>
+      <c r="GZ61" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA61" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB61" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC61" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD61" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE61" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF61" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG61" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH61" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI61" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ61" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s" s="13">
         <v>43</v>
-      </c>
-      <c r="B62" t="s" s="13">
-        <v>42</v>
       </c>
       <c r="C62" t="n" s="10">
         <v>6719473.0</v>
@@ -36421,48 +38436,84 @@
         <v>4546083.0</v>
       </c>
       <c r="GM62" t="n" s="10">
-        <v>4018539.0</v>
+        <v>4942707.0</v>
       </c>
       <c r="GN62" t="n" s="10">
-        <v>4256817.0</v>
+        <v>5799029.0</v>
       </c>
       <c r="GO62" t="n" s="10">
-        <v>5456233.0</v>
+        <v>7588102.0</v>
       </c>
       <c r="GP62" t="n" s="10">
-        <v>5092412.0</v>
+        <v>6919324.0</v>
       </c>
       <c r="GQ62" t="n" s="10">
-        <v>5146863.0</v>
+        <v>6997899.0</v>
       </c>
       <c r="GR62" t="n" s="10">
-        <v>5440217.0</v>
+        <v>7397466.0</v>
       </c>
       <c r="GS62" t="n" s="10">
-        <v>5919271.0</v>
+        <v>8108013.0</v>
       </c>
       <c r="GT62" t="n" s="10">
-        <v>5977390.0</v>
+        <v>8112009.0</v>
       </c>
       <c r="GU62" t="n" s="10">
-        <v>6221623.0</v>
+        <v>8370491.0</v>
       </c>
       <c r="GV62" t="n" s="10">
-        <v>7082836.0</v>
-      </c>
-      <c r="GW62" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX62" t="s" s="10">
-        <v>37</v>
+        <v>1.0091883E7</v>
+      </c>
+      <c r="GW62" t="n" s="10">
+        <v>9593319.0</v>
+      </c>
+      <c r="GX62" t="n" s="10">
+        <v>8644283.0</v>
+      </c>
+      <c r="GY62" t="n" s="10">
+        <v>8868187.0</v>
+      </c>
+      <c r="GZ62" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA62" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB62" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC62" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD62" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE62" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF62" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG62" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH62" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI62" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ62" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C63" t="n" s="10">
         <v>6408019.0</v>
@@ -37041,48 +39092,84 @@
         <v>4021720.0</v>
       </c>
       <c r="GM63" t="n" s="10">
-        <v>3552955.0</v>
+        <v>4497895.0</v>
       </c>
       <c r="GN63" t="n" s="10">
-        <v>3725937.0</v>
+        <v>5230419.0</v>
       </c>
       <c r="GO63" t="n" s="10">
-        <v>4766428.0</v>
+        <v>6940673.0</v>
       </c>
       <c r="GP63" t="n" s="10">
-        <v>4513803.0</v>
+        <v>6308749.0</v>
       </c>
       <c r="GQ63" t="n" s="10">
-        <v>4538131.0</v>
+        <v>6357427.0</v>
       </c>
       <c r="GR63" t="n" s="10">
-        <v>4789600.0</v>
+        <v>6709495.0</v>
       </c>
       <c r="GS63" t="n" s="10">
-        <v>5260590.0</v>
+        <v>7408185.0</v>
       </c>
       <c r="GT63" t="n" s="10">
-        <v>5264018.0</v>
+        <v>7368094.0</v>
       </c>
       <c r="GU63" t="n" s="10">
-        <v>5536879.0</v>
+        <v>7582958.0</v>
       </c>
       <c r="GV63" t="n" s="10">
-        <v>6389524.0</v>
-      </c>
-      <c r="GW63" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX63" t="s" s="10">
-        <v>37</v>
+        <v>9250367.0</v>
+      </c>
+      <c r="GW63" t="n" s="10">
+        <v>8796666.0</v>
+      </c>
+      <c r="GX63" t="n" s="10">
+        <v>7871589.0</v>
+      </c>
+      <c r="GY63" t="n" s="10">
+        <v>7897426.0</v>
+      </c>
+      <c r="GZ63" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA63" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB63" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC63" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD63" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE63" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF63" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG63" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH63" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI63" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ63" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C64" t="n" s="10">
         <v>311454.0</v>
@@ -37661,48 +39748,84 @@
         <v>524362.0</v>
       </c>
       <c r="GM64" t="n" s="10">
-        <v>465583.0</v>
+        <v>444812.0</v>
       </c>
       <c r="GN64" t="n" s="10">
-        <v>530880.0</v>
+        <v>568610.0</v>
       </c>
       <c r="GO64" t="n" s="10">
-        <v>689805.0</v>
+        <v>647429.0</v>
       </c>
       <c r="GP64" t="n" s="10">
-        <v>578608.0</v>
+        <v>610576.0</v>
       </c>
       <c r="GQ64" t="n" s="10">
-        <v>608732.0</v>
+        <v>640472.0</v>
       </c>
       <c r="GR64" t="n" s="10">
-        <v>650617.0</v>
+        <v>687972.0</v>
       </c>
       <c r="GS64" t="n" s="10">
-        <v>658681.0</v>
+        <v>699828.0</v>
       </c>
       <c r="GT64" t="n" s="10">
-        <v>713372.0</v>
+        <v>743915.0</v>
       </c>
       <c r="GU64" t="n" s="10">
-        <v>684744.0</v>
+        <v>787533.0</v>
       </c>
       <c r="GV64" t="n" s="10">
-        <v>693311.0</v>
-      </c>
-      <c r="GW64" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX64" t="s" s="10">
-        <v>37</v>
+        <v>841516.0</v>
+      </c>
+      <c r="GW64" t="n" s="10">
+        <v>796653.0</v>
+      </c>
+      <c r="GX64" t="n" s="10">
+        <v>772694.0</v>
+      </c>
+      <c r="GY64" t="n" s="10">
+        <v>970761.0</v>
+      </c>
+      <c r="GZ64" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA64" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB64" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC64" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD64" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE64" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF64" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG64" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH64" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI64" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ64" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C65" t="n" s="10">
         <v>200946.0</v>
@@ -38281,48 +40404,84 @@
         <v>271526.0</v>
       </c>
       <c r="GM65" t="n" s="10">
-        <v>236941.0</v>
+        <v>272983.0</v>
       </c>
       <c r="GN65" t="n" s="10">
-        <v>316461.0</v>
+        <v>366721.0</v>
       </c>
       <c r="GO65" t="n" s="10">
-        <v>338141.0</v>
+        <v>406384.0</v>
       </c>
       <c r="GP65" t="n" s="10">
-        <v>331568.0</v>
+        <v>376021.0</v>
       </c>
       <c r="GQ65" t="n" s="10">
-        <v>333511.0</v>
+        <v>380674.0</v>
       </c>
       <c r="GR65" t="n" s="10">
-        <v>377056.0</v>
+        <v>427001.0</v>
       </c>
       <c r="GS65" t="n" s="10">
-        <v>371983.0</v>
+        <v>430032.0</v>
       </c>
       <c r="GT65" t="n" s="10">
-        <v>403427.0</v>
+        <v>470363.0</v>
       </c>
       <c r="GU65" t="n" s="10">
-        <v>474378.0</v>
+        <v>526816.0</v>
       </c>
       <c r="GV65" t="n" s="10">
-        <v>450883.0</v>
-      </c>
-      <c r="GW65" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX65" t="s" s="10">
-        <v>37</v>
+        <v>526077.0</v>
+      </c>
+      <c r="GW65" t="n" s="10">
+        <v>508872.0</v>
+      </c>
+      <c r="GX65" t="n" s="10">
+        <v>496765.0</v>
+      </c>
+      <c r="GY65" t="n" s="10">
+        <v>630455.0</v>
+      </c>
+      <c r="GZ65" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA65" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB65" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC65" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD65" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE65" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF65" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG65" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH65" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI65" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ65" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C66" t="n" s="10">
         <v>110508.0</v>
@@ -38901,45 +41060,81 @@
         <v>252836.0</v>
       </c>
       <c r="GM66" t="n" s="10">
-        <v>228642.0</v>
+        <v>171830.0</v>
       </c>
       <c r="GN66" t="n" s="10">
-        <v>214418.0</v>
+        <v>201889.0</v>
       </c>
       <c r="GO66" t="n" s="10">
-        <v>351664.0</v>
+        <v>241045.0</v>
       </c>
       <c r="GP66" t="n" s="10">
-        <v>247040.0</v>
+        <v>234555.0</v>
       </c>
       <c r="GQ66" t="n" s="10">
-        <v>275220.0</v>
+        <v>259798.0</v>
       </c>
       <c r="GR66" t="n" s="10">
-        <v>273561.0</v>
+        <v>260971.0</v>
       </c>
       <c r="GS66" t="n" s="10">
-        <v>286698.0</v>
+        <v>269797.0</v>
       </c>
       <c r="GT66" t="n" s="10">
-        <v>309946.0</v>
+        <v>273552.0</v>
       </c>
       <c r="GU66" t="n" s="10">
-        <v>210367.0</v>
+        <v>260717.0</v>
       </c>
       <c r="GV66" t="n" s="10">
-        <v>242429.0</v>
-      </c>
-      <c r="GW66" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX66" t="s" s="10">
-        <v>37</v>
+        <v>315439.0</v>
+      </c>
+      <c r="GW66" t="n" s="10">
+        <v>287781.0</v>
+      </c>
+      <c r="GX66" t="n" s="10">
+        <v>275930.0</v>
+      </c>
+      <c r="GY66" t="n" s="10">
+        <v>340306.0</v>
+      </c>
+      <c r="GZ66" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA66" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB66" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC66" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD66" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE66" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF66" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG66" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH66" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI66" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ66" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="33.75" customHeight="true">
       <c r="A67" t="s" s="14">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68">
@@ -38947,7 +41142,7 @@
         <v>3</v>
       </c>
       <c r="B68" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C68" t="n" s="10">
         <v>181.0</v>
@@ -39555,19 +41750,55 @@
       <c r="GV68" t="n" s="10">
         <v>132.0</v>
       </c>
-      <c r="GW68" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX68" t="s" s="10">
-        <v>37</v>
+      <c r="GW68" t="n" s="10">
+        <v>132.0</v>
+      </c>
+      <c r="GX68" t="n" s="10">
+        <v>132.0</v>
+      </c>
+      <c r="GY68" t="n" s="10">
+        <v>131.0</v>
+      </c>
+      <c r="GZ68" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA68" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB68" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC68" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD68" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE68" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF68" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG68" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH68" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI68" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ68" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C69" t="n" s="10">
         <v>73625.0</v>
@@ -40146,48 +42377,84 @@
         <v>25432.0</v>
       </c>
       <c r="GM69" t="n" s="10">
-        <v>24732.0</v>
+        <v>24634.0</v>
       </c>
       <c r="GN69" t="n" s="10">
-        <v>24175.0</v>
+        <v>24440.0</v>
       </c>
       <c r="GO69" t="n" s="10">
-        <v>24439.0</v>
+        <v>24446.0</v>
       </c>
       <c r="GP69" t="n" s="10">
-        <v>24074.0</v>
+        <v>24091.0</v>
       </c>
       <c r="GQ69" t="n" s="10">
-        <v>23955.0</v>
+        <v>23952.0</v>
       </c>
       <c r="GR69" t="n" s="10">
-        <v>23971.0</v>
+        <v>23962.0</v>
       </c>
       <c r="GS69" t="n" s="10">
-        <v>23750.0</v>
+        <v>23736.0</v>
       </c>
       <c r="GT69" t="n" s="10">
-        <v>23706.0</v>
+        <v>23704.0</v>
       </c>
       <c r="GU69" t="n" s="10">
-        <v>23723.0</v>
+        <v>23725.0</v>
       </c>
       <c r="GV69" t="n" s="10">
-        <v>23486.0</v>
-      </c>
-      <c r="GW69" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX69" t="s" s="10">
-        <v>37</v>
+        <v>23484.0</v>
+      </c>
+      <c r="GW69" t="n" s="10">
+        <v>23423.0</v>
+      </c>
+      <c r="GX69" t="n" s="10">
+        <v>23273.0</v>
+      </c>
+      <c r="GY69" t="n" s="10">
+        <v>22402.0</v>
+      </c>
+      <c r="GZ69" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA69" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB69" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC69" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD69" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE69" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF69" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG69" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH69" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI69" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ69" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s" s="13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C70" t="n" s="10">
         <v>9431.0</v>
@@ -40766,48 +43033,84 @@
         <v>2941.0</v>
       </c>
       <c r="GM70" t="n" s="10">
-        <v>3128.0</v>
+        <v>3053.0</v>
       </c>
       <c r="GN70" t="n" s="10">
-        <v>3049.0</v>
+        <v>3063.0</v>
       </c>
       <c r="GO70" t="n" s="10">
-        <v>3418.0</v>
+        <v>3442.0</v>
       </c>
       <c r="GP70" t="n" s="10">
-        <v>3078.0</v>
+        <v>3090.0</v>
       </c>
       <c r="GQ70" t="n" s="10">
-        <v>2899.0</v>
+        <v>2907.0</v>
       </c>
       <c r="GR70" t="n" s="10">
-        <v>3154.0</v>
+        <v>3167.0</v>
       </c>
       <c r="GS70" t="n" s="10">
-        <v>3055.0</v>
+        <v>3031.0</v>
       </c>
       <c r="GT70" t="n" s="10">
-        <v>2928.0</v>
+        <v>2936.0</v>
       </c>
       <c r="GU70" t="n" s="10">
-        <v>3064.0</v>
+        <v>3072.0</v>
       </c>
       <c r="GV70" t="n" s="10">
-        <v>3037.0</v>
-      </c>
-      <c r="GW70" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX70" t="s" s="10">
-        <v>37</v>
+        <v>3035.0</v>
+      </c>
+      <c r="GW70" t="n" s="10">
+        <v>3157.0</v>
+      </c>
+      <c r="GX70" t="n" s="10">
+        <v>2703.0</v>
+      </c>
+      <c r="GY70" t="n" s="10">
+        <v>2937.0</v>
+      </c>
+      <c r="GZ70" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA70" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB70" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC70" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD70" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE70" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF70" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG70" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH70" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI70" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ70" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C71" t="n" s="10">
         <v>221581.0</v>
@@ -41386,48 +43689,84 @@
         <v>119847.0</v>
       </c>
       <c r="GM71" t="n" s="10">
-        <v>112818.0</v>
+        <v>109274.0</v>
       </c>
       <c r="GN71" t="n" s="10">
-        <v>128796.0</v>
+        <v>128862.0</v>
       </c>
       <c r="GO71" t="n" s="10">
-        <v>122381.0</v>
+        <v>126410.0</v>
       </c>
       <c r="GP71" t="n" s="10">
-        <v>128114.0</v>
+        <v>127612.0</v>
       </c>
       <c r="GQ71" t="n" s="10">
-        <v>117532.0</v>
+        <v>117822.0</v>
       </c>
       <c r="GR71" t="n" s="10">
-        <v>118876.0</v>
+        <v>119149.0</v>
       </c>
       <c r="GS71" t="n" s="10">
-        <v>109870.0</v>
+        <v>109772.0</v>
       </c>
       <c r="GT71" t="n" s="10">
-        <v>105893.0</v>
+        <v>105956.0</v>
       </c>
       <c r="GU71" t="n" s="10">
-        <v>110324.0</v>
+        <v>110445.0</v>
       </c>
       <c r="GV71" t="n" s="10">
-        <v>128392.0</v>
-      </c>
-      <c r="GW71" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX71" t="s" s="10">
-        <v>37</v>
+        <v>128383.0</v>
+      </c>
+      <c r="GW71" t="n" s="10">
+        <v>145377.0</v>
+      </c>
+      <c r="GX71" t="n" s="10">
+        <v>114350.0</v>
+      </c>
+      <c r="GY71" t="n" s="10">
+        <v>101924.0</v>
+      </c>
+      <c r="GZ71" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA71" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB71" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC71" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD71" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE71" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF71" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG71" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH71" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI71" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ71" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s" s="13">
         <v>43</v>
-      </c>
-      <c r="B72" t="s" s="13">
-        <v>42</v>
       </c>
       <c r="C72" t="n" s="10">
         <v>677547.0</v>
@@ -42006,48 +44345,84 @@
         <v>437031.0</v>
       </c>
       <c r="GM72" t="n" s="10">
-        <v>432892.0</v>
+        <v>378289.0</v>
       </c>
       <c r="GN72" t="n" s="10">
-        <v>422424.0</v>
+        <v>380720.0</v>
       </c>
       <c r="GO72" t="n" s="10">
-        <v>469297.0</v>
+        <v>425191.0</v>
       </c>
       <c r="GP72" t="n" s="10">
-        <v>449041.0</v>
+        <v>403053.0</v>
       </c>
       <c r="GQ72" t="n" s="10">
-        <v>446442.0</v>
+        <v>399996.0</v>
       </c>
       <c r="GR72" t="n" s="10">
-        <v>478995.0</v>
+        <v>437409.0</v>
       </c>
       <c r="GS72" t="n" s="10">
-        <v>489076.0</v>
+        <v>429511.0</v>
       </c>
       <c r="GT72" t="n" s="10">
-        <v>488773.0</v>
+        <v>412180.0</v>
       </c>
       <c r="GU72" t="n" s="10">
-        <v>460881.0</v>
+        <v>460716.0</v>
       </c>
       <c r="GV72" t="n" s="10">
-        <v>487993.0</v>
-      </c>
-      <c r="GW72" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX72" t="s" s="10">
-        <v>37</v>
+        <v>488006.0</v>
+      </c>
+      <c r="GW72" t="n" s="10">
+        <v>487113.0</v>
+      </c>
+      <c r="GX72" t="n" s="10">
+        <v>528029.0</v>
+      </c>
+      <c r="GY72" t="n" s="10">
+        <v>463383.0</v>
+      </c>
+      <c r="GZ72" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA72" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB72" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC72" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD72" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE72" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF72" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG72" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH72" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI72" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ72" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C73" t="n" s="10">
         <v>568685.0</v>
@@ -42626,48 +45001,84 @@
         <v>342204.0</v>
       </c>
       <c r="GM73" t="n" s="10">
-        <v>330316.0</v>
+        <v>338571.0</v>
       </c>
       <c r="GN73" t="n" s="10">
-        <v>332118.0</v>
+        <v>339478.0</v>
       </c>
       <c r="GO73" t="n" s="10">
-        <v>365735.0</v>
+        <v>378611.0</v>
       </c>
       <c r="GP73" t="n" s="10">
-        <v>349716.0</v>
+        <v>358549.0</v>
       </c>
       <c r="GQ73" t="n" s="10">
-        <v>344373.0</v>
+        <v>354174.0</v>
       </c>
       <c r="GR73" t="n" s="10">
-        <v>373953.0</v>
+        <v>387384.0</v>
       </c>
       <c r="GS73" t="n" s="10">
-        <v>370866.0</v>
+        <v>383589.0</v>
       </c>
       <c r="GT73" t="n" s="10">
-        <v>359051.0</v>
+        <v>369567.0</v>
       </c>
       <c r="GU73" t="n" s="10">
-        <v>403185.0</v>
+        <v>402797.0</v>
       </c>
       <c r="GV73" t="n" s="10">
-        <v>436929.0</v>
-      </c>
-      <c r="GW73" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX73" t="s" s="10">
-        <v>37</v>
+        <v>437212.0</v>
+      </c>
+      <c r="GW73" t="n" s="10">
+        <v>435200.0</v>
+      </c>
+      <c r="GX73" t="n" s="10">
+        <v>477288.0</v>
+      </c>
+      <c r="GY73" t="n" s="10">
+        <v>412944.0</v>
+      </c>
+      <c r="GZ73" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA73" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB73" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC73" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD73" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE73" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF73" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG73" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH73" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI73" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ73" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C74" t="n" s="10">
         <v>108863.0</v>
@@ -43246,48 +45657,84 @@
         <v>94827.0</v>
       </c>
       <c r="GM74" t="n" s="10">
-        <v>102576.0</v>
+        <v>39718.0</v>
       </c>
       <c r="GN74" t="n" s="10">
-        <v>90306.0</v>
+        <v>41242.0</v>
       </c>
       <c r="GO74" t="n" s="10">
-        <v>103562.0</v>
+        <v>46580.0</v>
       </c>
       <c r="GP74" t="n" s="10">
-        <v>99325.0</v>
+        <v>44504.0</v>
       </c>
       <c r="GQ74" t="n" s="10">
-        <v>102070.0</v>
+        <v>45822.0</v>
       </c>
       <c r="GR74" t="n" s="10">
-        <v>105042.0</v>
+        <v>50025.0</v>
       </c>
       <c r="GS74" t="n" s="10">
-        <v>118210.0</v>
+        <v>45923.0</v>
       </c>
       <c r="GT74" t="n" s="10">
-        <v>129722.0</v>
+        <v>42614.0</v>
       </c>
       <c r="GU74" t="n" s="10">
-        <v>57696.0</v>
+        <v>57920.0</v>
       </c>
       <c r="GV74" t="n" s="10">
-        <v>51065.0</v>
-      </c>
-      <c r="GW74" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX74" t="s" s="10">
-        <v>37</v>
+        <v>50794.0</v>
+      </c>
+      <c r="GW74" t="n" s="10">
+        <v>51914.0</v>
+      </c>
+      <c r="GX74" t="n" s="10">
+        <v>50741.0</v>
+      </c>
+      <c r="GY74" t="n" s="10">
+        <v>50438.0</v>
+      </c>
+      <c r="GZ74" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA74" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB74" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC74" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD74" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE74" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF74" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG74" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH74" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI74" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ74" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C75" t="n" s="10">
         <v>45510.0</v>
@@ -43866,48 +46313,84 @@
         <v>25807.0</v>
       </c>
       <c r="GM75" t="n" s="10">
-        <v>21750.0</v>
+        <v>21177.0</v>
       </c>
       <c r="GN75" t="n" s="10">
-        <v>23097.0</v>
+        <v>22981.0</v>
       </c>
       <c r="GO75" t="n" s="10">
-        <v>30523.0</v>
+        <v>29563.0</v>
       </c>
       <c r="GP75" t="n" s="10">
-        <v>30928.0</v>
+        <v>30553.0</v>
       </c>
       <c r="GQ75" t="n" s="10">
-        <v>27134.0</v>
+        <v>27135.0</v>
       </c>
       <c r="GR75" t="n" s="10">
-        <v>27543.0</v>
+        <v>27526.0</v>
       </c>
       <c r="GS75" t="n" s="10">
-        <v>27979.0</v>
+        <v>27120.0</v>
       </c>
       <c r="GT75" t="n" s="10">
-        <v>24952.0</v>
+        <v>24852.0</v>
       </c>
       <c r="GU75" t="n" s="10">
-        <v>33789.0</v>
+        <v>34013.0</v>
       </c>
       <c r="GV75" t="n" s="10">
-        <v>31002.0</v>
-      </c>
-      <c r="GW75" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX75" t="s" s="10">
-        <v>37</v>
+        <v>30731.0</v>
+      </c>
+      <c r="GW75" t="n" s="10">
+        <v>32895.0</v>
+      </c>
+      <c r="GX75" t="n" s="10">
+        <v>30305.0</v>
+      </c>
+      <c r="GY75" t="n" s="10">
+        <v>28777.0</v>
+      </c>
+      <c r="GZ75" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA75" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB75" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC75" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD75" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE75" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF75" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG75" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH75" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI75" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ75" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C76" t="n" s="10">
         <v>63353.0</v>
@@ -44486,28 +46969,28 @@
         <v>69020.0</v>
       </c>
       <c r="GM76" t="n" s="10">
-        <v>80827.0</v>
+        <v>18541.0</v>
       </c>
       <c r="GN76" t="n" s="10">
-        <v>67209.0</v>
+        <v>18262.0</v>
       </c>
       <c r="GO76" t="n" s="10">
-        <v>73039.0</v>
+        <v>17017.0</v>
       </c>
       <c r="GP76" t="n" s="10">
-        <v>68396.0</v>
+        <v>13951.0</v>
       </c>
       <c r="GQ76" t="n" s="10">
-        <v>74936.0</v>
+        <v>18687.0</v>
       </c>
       <c r="GR76" t="n" s="10">
-        <v>77499.0</v>
+        <v>22499.0</v>
       </c>
       <c r="GS76" t="n" s="10">
-        <v>90231.0</v>
+        <v>18803.0</v>
       </c>
       <c r="GT76" t="n" s="10">
-        <v>104770.0</v>
+        <v>17761.0</v>
       </c>
       <c r="GU76" t="n" s="10">
         <v>23906.0</v>
@@ -44515,16 +46998,52 @@
       <c r="GV76" t="n" s="10">
         <v>20063.0</v>
       </c>
-      <c r="GW76" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX76" t="s" s="10">
-        <v>37</v>
+      <c r="GW76" t="n" s="10">
+        <v>19019.0</v>
+      </c>
+      <c r="GX76" t="n" s="10">
+        <v>20437.0</v>
+      </c>
+      <c r="GY76" t="n" s="10">
+        <v>21662.0</v>
+      </c>
+      <c r="GZ76" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA76" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB76" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC76" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD76" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE76" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF76" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG76" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH76" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI76" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ76" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="33.75" customHeight="true">
       <c r="A77" t="s" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78">
@@ -44532,7 +47051,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C78" t="n" s="10">
         <v>22045.0</v>
@@ -45111,25 +47630,25 @@
         <v>23147.0</v>
       </c>
       <c r="GM78" t="n" s="10">
-        <v>22375.0</v>
+        <v>22354.0</v>
       </c>
       <c r="GN78" t="n" s="10">
-        <v>22498.0</v>
+        <v>22488.0</v>
       </c>
       <c r="GO78" t="n" s="10">
-        <v>22575.0</v>
+        <v>22567.0</v>
       </c>
       <c r="GP78" t="n" s="10">
-        <v>22572.0</v>
+        <v>22568.0</v>
       </c>
       <c r="GQ78" t="n" s="10">
-        <v>22562.0</v>
+        <v>22559.0</v>
       </c>
       <c r="GR78" t="n" s="10">
-        <v>22541.0</v>
+        <v>22539.0</v>
       </c>
       <c r="GS78" t="n" s="10">
-        <v>22527.0</v>
+        <v>22526.0</v>
       </c>
       <c r="GT78" t="n" s="10">
         <v>22507.0</v>
@@ -45140,19 +47659,55 @@
       <c r="GV78" t="n" s="10">
         <v>22475.0</v>
       </c>
-      <c r="GW78" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX78" t="s" s="10">
-        <v>37</v>
+      <c r="GW78" t="n" s="10">
+        <v>22460.0</v>
+      </c>
+      <c r="GX78" t="n" s="10">
+        <v>22445.0</v>
+      </c>
+      <c r="GY78" t="n" s="10">
+        <v>22156.0</v>
+      </c>
+      <c r="GZ78" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA78" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB78" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC78" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD78" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE78" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF78" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG78" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH78" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI78" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ78" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B79" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C79" t="n" s="10">
         <v>5046889.0</v>
@@ -45731,48 +48286,84 @@
         <v>5488642.0</v>
       </c>
       <c r="GM79" t="n" s="10">
-        <v>5449102.0</v>
+        <v>5439905.0</v>
       </c>
       <c r="GN79" t="n" s="10">
-        <v>5444820.0</v>
+        <v>5441064.0</v>
       </c>
       <c r="GO79" t="n" s="10">
-        <v>5451506.0</v>
+        <v>5448735.0</v>
       </c>
       <c r="GP79" t="n" s="10">
-        <v>5450014.0</v>
+        <v>5450400.0</v>
       </c>
       <c r="GQ79" t="n" s="10">
-        <v>5448600.0</v>
+        <v>5448883.0</v>
       </c>
       <c r="GR79" t="n" s="10">
-        <v>5452667.0</v>
+        <v>5453181.0</v>
       </c>
       <c r="GS79" t="n" s="10">
-        <v>5455305.0</v>
+        <v>5458102.0</v>
       </c>
       <c r="GT79" t="n" s="10">
-        <v>5472132.0</v>
+        <v>5471003.0</v>
       </c>
       <c r="GU79" t="n" s="10">
-        <v>5496451.0</v>
+        <v>5495237.0</v>
       </c>
       <c r="GV79" t="n" s="10">
-        <v>5488912.0</v>
-      </c>
-      <c r="GW79" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX79" t="s" s="10">
-        <v>37</v>
+        <v>5487379.0</v>
+      </c>
+      <c r="GW79" t="n" s="10">
+        <v>5488866.0</v>
+      </c>
+      <c r="GX79" t="n" s="10">
+        <v>5471169.0</v>
+      </c>
+      <c r="GY79" t="n" s="10">
+        <v>5457577.0</v>
+      </c>
+      <c r="GZ79" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA79" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB79" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC79" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD79" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE79" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF79" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG79" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH79" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI79" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ79" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s" s="13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C80" t="n" s="10">
         <v>642570.0</v>
@@ -46351,48 +48942,84 @@
         <v>589742.0</v>
       </c>
       <c r="GM80" t="n" s="10">
-        <v>649922.0</v>
+        <v>651099.0</v>
       </c>
       <c r="GN80" t="n" s="10">
-        <v>681086.0</v>
+        <v>681574.0</v>
       </c>
       <c r="GO80" t="n" s="10">
-        <v>754312.0</v>
+        <v>756729.0</v>
       </c>
       <c r="GP80" t="n" s="10">
-        <v>678817.0</v>
+        <v>676706.0</v>
       </c>
       <c r="GQ80" t="n" s="10">
-        <v>637624.0</v>
+        <v>636557.0</v>
       </c>
       <c r="GR80" t="n" s="10">
-        <v>686132.0</v>
+        <v>688072.0</v>
       </c>
       <c r="GS80" t="n" s="10">
-        <v>676226.0</v>
+        <v>676715.0</v>
       </c>
       <c r="GT80" t="n" s="10">
-        <v>618625.0</v>
+        <v>615667.0</v>
       </c>
       <c r="GU80" t="n" s="10">
-        <v>685019.0</v>
+        <v>685281.0</v>
       </c>
       <c r="GV80" t="n" s="10">
-        <v>678948.0</v>
-      </c>
-      <c r="GW80" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX80" t="s" s="10">
-        <v>37</v>
+        <v>678039.0</v>
+      </c>
+      <c r="GW80" t="n" s="10">
+        <v>704897.0</v>
+      </c>
+      <c r="GX80" t="n" s="10">
+        <v>603791.0</v>
+      </c>
+      <c r="GY80" t="n" s="10">
+        <v>670177.0</v>
+      </c>
+      <c r="GZ80" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA80" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB80" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC80" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD80" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE80" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF80" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG80" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH80" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI80" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ80" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C81" t="n" s="10">
         <v>1.5903542E7</v>
@@ -46971,48 +49598,84 @@
         <v>2.3942043E7</v>
       </c>
       <c r="GM81" t="n" s="10">
-        <v>2.3413765E7</v>
+        <v>2.3318832E7</v>
       </c>
       <c r="GN81" t="n" s="10">
-        <v>2.2363945E7</v>
+        <v>2.2375681E7</v>
       </c>
       <c r="GO81" t="n" s="10">
-        <v>2.3783217E7</v>
+        <v>2.3802938E7</v>
       </c>
       <c r="GP81" t="n" s="10">
-        <v>2.47656E7</v>
+        <v>2.4872875E7</v>
       </c>
       <c r="GQ81" t="n" s="10">
-        <v>2.5444707E7</v>
+        <v>2.5420118E7</v>
       </c>
       <c r="GR81" t="n" s="10">
-        <v>2.6679436E7</v>
+        <v>2.6841213E7</v>
       </c>
       <c r="GS81" t="n" s="10">
-        <v>2.4183267E7</v>
+        <v>2.4145624E7</v>
       </c>
       <c r="GT81" t="n" s="10">
-        <v>2.3060378E7</v>
+        <v>2.2979701E7</v>
       </c>
       <c r="GU81" t="n" s="10">
-        <v>2.2940111E7</v>
+        <v>2.293752E7</v>
       </c>
       <c r="GV81" t="n" s="10">
-        <v>2.3216461E7</v>
-      </c>
-      <c r="GW81" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX81" t="s" s="10">
-        <v>37</v>
+        <v>2.3231253E7</v>
+      </c>
+      <c r="GW81" t="n" s="10">
+        <v>3.0366466E7</v>
+      </c>
+      <c r="GX81" t="n" s="10">
+        <v>2.4376297E7</v>
+      </c>
+      <c r="GY81" t="n" s="10">
+        <v>2.4173586E7</v>
+      </c>
+      <c r="GZ81" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA81" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB81" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC81" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD81" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE81" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF81" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG81" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH81" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI81" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ81" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s" s="13">
         <v>43</v>
-      </c>
-      <c r="B82" t="s" s="13">
-        <v>42</v>
       </c>
       <c r="C82" t="n" s="10">
         <v>9.6333286E7</v>
@@ -47591,48 +50254,84 @@
         <v>1.51052254E8</v>
       </c>
       <c r="GM82" t="n" s="10">
-        <v>1.27711611E8</v>
+        <v>1.27723266E8</v>
       </c>
       <c r="GN82" t="n" s="10">
-        <v>1.39255635E8</v>
+        <v>1.40730211E8</v>
       </c>
       <c r="GO82" t="n" s="10">
-        <v>1.7361649E8</v>
+        <v>1.76601101E8</v>
       </c>
       <c r="GP82" t="n" s="10">
-        <v>1.50623205E8</v>
+        <v>1.52221457E8</v>
       </c>
       <c r="GQ82" t="n" s="10">
-        <v>1.44198218E8</v>
+        <v>1.46427017E8</v>
       </c>
       <c r="GR82" t="n" s="10">
-        <v>1.58852834E8</v>
+        <v>1.62403011E8</v>
       </c>
       <c r="GS82" t="n" s="10">
-        <v>1.50948564E8</v>
+        <v>1.53197506E8</v>
       </c>
       <c r="GT82" t="n" s="10">
-        <v>1.36338552E8</v>
+        <v>1.38541495E8</v>
       </c>
       <c r="GU82" t="n" s="10">
-        <v>1.58145731E8</v>
+        <v>1.61015131E8</v>
       </c>
       <c r="GV82" t="n" s="10">
-        <v>1.55355387E8</v>
-      </c>
-      <c r="GW82" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX82" t="s" s="10">
-        <v>37</v>
+        <v>1.58115661E8</v>
+      </c>
+      <c r="GW82" t="n" s="10">
+        <v>1.75554889E8</v>
+      </c>
+      <c r="GX82" t="n" s="10">
+        <v>1.69420901E8</v>
+      </c>
+      <c r="GY82" t="n" s="10">
+        <v>1.53923762E8</v>
+      </c>
+      <c r="GZ82" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA82" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB82" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC82" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD82" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE82" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF82" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG82" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH82" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI82" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ82" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B83" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C83" t="n" s="10">
         <v>5.5244972E7</v>
@@ -48211,48 +50910,84 @@
         <v>7.3555752E7</v>
       </c>
       <c r="GM83" t="n" s="10">
-        <v>6.2138946E7</v>
+        <v>6.254063E7</v>
       </c>
       <c r="GN83" t="n" s="10">
-        <v>6.6596724E7</v>
+        <v>6.7902298E7</v>
       </c>
       <c r="GO83" t="n" s="10">
-        <v>8.3129605E7</v>
+        <v>8.5503777E7</v>
       </c>
       <c r="GP83" t="n" s="10">
-        <v>7.2700167E7</v>
+        <v>7.4271912E7</v>
       </c>
       <c r="GQ83" t="n" s="10">
-        <v>7.0798282E7</v>
+        <v>7.288566E7</v>
       </c>
       <c r="GR83" t="n" s="10">
-        <v>7.7646337E7</v>
+        <v>8.0239695E7</v>
       </c>
       <c r="GS83" t="n" s="10">
-        <v>7.5352239E7</v>
+        <v>7.745952E7</v>
       </c>
       <c r="GT83" t="n" s="10">
-        <v>6.9222284E7</v>
+        <v>7.1020327E7</v>
       </c>
       <c r="GU83" t="n" s="10">
-        <v>7.8068483E7</v>
+        <v>8.0466734E7</v>
       </c>
       <c r="GV83" t="n" s="10">
-        <v>7.7282107E7</v>
-      </c>
-      <c r="GW83" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX83" t="s" s="10">
-        <v>37</v>
+        <v>8.0162194E7</v>
+      </c>
+      <c r="GW83" t="n" s="10">
+        <v>8.661765E7</v>
+      </c>
+      <c r="GX83" t="n" s="10">
+        <v>8.4302697E7</v>
+      </c>
+      <c r="GY83" t="n" s="10">
+        <v>7.761059E7</v>
+      </c>
+      <c r="GZ83" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA83" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB83" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC83" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD83" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE83" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF83" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG83" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH83" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI83" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ83" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B84" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C84" t="n" s="10">
         <v>4.1088314E7</v>
@@ -48831,48 +51566,84 @@
         <v>7.7496502E7</v>
       </c>
       <c r="GM84" t="n" s="10">
-        <v>6.5572665E7</v>
+        <v>6.5182636E7</v>
       </c>
       <c r="GN84" t="n" s="10">
-        <v>7.2658911E7</v>
+        <v>7.2827912E7</v>
       </c>
       <c r="GO84" t="n" s="10">
-        <v>9.0486884E7</v>
+        <v>9.1097324E7</v>
       </c>
       <c r="GP84" t="n" s="10">
-        <v>7.7923038E7</v>
+        <v>7.7949545E7</v>
       </c>
       <c r="GQ84" t="n" s="10">
-        <v>7.3399936E7</v>
+        <v>7.3541357E7</v>
       </c>
       <c r="GR84" t="n" s="10">
-        <v>8.1206497E7</v>
+        <v>8.2163316E7</v>
       </c>
       <c r="GS84" t="n" s="10">
-        <v>7.5596324E7</v>
+        <v>7.5737986E7</v>
       </c>
       <c r="GT84" t="n" s="10">
-        <v>6.7116268E7</v>
+        <v>6.7521168E7</v>
       </c>
       <c r="GU84" t="n" s="10">
-        <v>8.0077248E7</v>
+        <v>8.0548398E7</v>
       </c>
       <c r="GV84" t="n" s="10">
-        <v>7.8073279E7</v>
-      </c>
-      <c r="GW84" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX84" t="s" s="10">
-        <v>37</v>
+        <v>7.7953466E7</v>
+      </c>
+      <c r="GW84" t="n" s="10">
+        <v>8.893724E7</v>
+      </c>
+      <c r="GX84" t="n" s="10">
+        <v>8.5118204E7</v>
+      </c>
+      <c r="GY84" t="n" s="10">
+        <v>7.6313172E7</v>
+      </c>
+      <c r="GZ84" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA84" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB84" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC84" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD84" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE84" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF84" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG84" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH84" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI84" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ84" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C85" t="n" s="10">
         <v>2.0446353E7</v>
@@ -49451,48 +52222,84 @@
         <v>2.9313184E7</v>
       </c>
       <c r="GM85" t="n" s="10">
-        <v>2.702663E7</v>
+        <v>2.6966518E7</v>
       </c>
       <c r="GN85" t="n" s="10">
-        <v>2.9321721E7</v>
+        <v>2.9521645E7</v>
       </c>
       <c r="GO85" t="n" s="10">
-        <v>3.499053E7</v>
+        <v>3.5410533E7</v>
       </c>
       <c r="GP85" t="n" s="10">
-        <v>3.1028148E7</v>
+        <v>3.1061729E7</v>
       </c>
       <c r="GQ85" t="n" s="10">
-        <v>2.9749555E7</v>
+        <v>2.9866969E7</v>
       </c>
       <c r="GR85" t="n" s="10">
-        <v>3.266886E7</v>
+        <v>3.3168223E7</v>
       </c>
       <c r="GS85" t="n" s="10">
-        <v>3.0243637E7</v>
+        <v>3.0368492E7</v>
       </c>
       <c r="GT85" t="n" s="10">
-        <v>2.6326518E7</v>
+        <v>2.6030636E7</v>
       </c>
       <c r="GU85" t="n" s="10">
-        <v>3.1881254E7</v>
+        <v>3.1997481E7</v>
       </c>
       <c r="GV85" t="n" s="10">
-        <v>3.0832718E7</v>
-      </c>
-      <c r="GW85" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX85" t="s" s="10">
-        <v>37</v>
+        <v>3.0908121E7</v>
+      </c>
+      <c r="GW85" t="n" s="10">
+        <v>3.4972867E7</v>
+      </c>
+      <c r="GX85" t="n" s="10">
+        <v>3.3287111E7</v>
+      </c>
+      <c r="GY85" t="n" s="10">
+        <v>3.21333E7</v>
+      </c>
+      <c r="GZ85" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA85" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB85" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC85" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD85" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE85" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF85" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG85" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH85" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI85" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ85" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C86" t="n" s="10">
         <v>2.0641961E7</v>
@@ -50071,107 +52878,143 @@
         <v>4.8183318E7</v>
       </c>
       <c r="GM86" t="n" s="10">
-        <v>3.8546035E7</v>
+        <v>3.8216118E7</v>
       </c>
       <c r="GN86" t="n" s="10">
-        <v>4.3337189E7</v>
+        <v>4.3306268E7</v>
       </c>
       <c r="GO86" t="n" s="10">
-        <v>5.5496354E7</v>
+        <v>5.5686791E7</v>
       </c>
       <c r="GP86" t="n" s="10">
-        <v>4.689489E7</v>
+        <v>4.6887816E7</v>
       </c>
       <c r="GQ86" t="n" s="10">
-        <v>4.3650381E7</v>
+        <v>4.3674388E7</v>
       </c>
       <c r="GR86" t="n" s="10">
-        <v>4.8537637E7</v>
+        <v>4.8995093E7</v>
       </c>
       <c r="GS86" t="n" s="10">
-        <v>4.5352687E7</v>
+        <v>4.5369494E7</v>
       </c>
       <c r="GT86" t="n" s="10">
-        <v>4.078975E7</v>
+        <v>4.1490532E7</v>
       </c>
       <c r="GU86" t="n" s="10">
-        <v>4.8195993E7</v>
+        <v>4.8550917E7</v>
       </c>
       <c r="GV86" t="n" s="10">
-        <v>4.7240561E7</v>
-      </c>
-      <c r="GW86" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GX86" t="s" s="10">
-        <v>37</v>
+        <v>4.7045345E7</v>
+      </c>
+      <c r="GW86" t="n" s="10">
+        <v>5.3964373E7</v>
+      </c>
+      <c r="GX86" t="n" s="10">
+        <v>5.1831093E7</v>
+      </c>
+      <c r="GY86" t="n" s="10">
+        <v>4.4179872E7</v>
+      </c>
+      <c r="GZ86" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HA86" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HB86" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HC86" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HD86" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HE86" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HF86" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HG86" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HH86" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HI86" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="HJ86" t="s" s="10">
+        <v>38</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="12">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:GX2"/>
-    <mergeCell ref="A3:GX3"/>
-    <mergeCell ref="A4:GX4"/>
+    <mergeCell ref="A2:HJ2"/>
+    <mergeCell ref="A3:HJ3"/>
+    <mergeCell ref="A4:HJ4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:N5"/>
@@ -50191,19 +53034,20 @@
     <mergeCell ref="FO5:FZ5"/>
     <mergeCell ref="GA5:GL5"/>
     <mergeCell ref="GM5:GX5"/>
-    <mergeCell ref="A7:GX7"/>
-    <mergeCell ref="A17:GX17"/>
-    <mergeCell ref="A27:GX27"/>
-    <mergeCell ref="A37:GX37"/>
-    <mergeCell ref="A47:GX47"/>
-    <mergeCell ref="A57:GX57"/>
-    <mergeCell ref="A67:GX67"/>
-    <mergeCell ref="A77:GX77"/>
-    <mergeCell ref="A1:GX1"/>
+    <mergeCell ref="GY5:HJ5"/>
+    <mergeCell ref="A7:HJ7"/>
+    <mergeCell ref="A17:HJ17"/>
+    <mergeCell ref="A27:HJ27"/>
+    <mergeCell ref="A37:HJ37"/>
+    <mergeCell ref="A47:HJ47"/>
+    <mergeCell ref="A57:HJ57"/>
+    <mergeCell ref="A67:HJ67"/>
+    <mergeCell ref="A77:HJ77"/>
+    <mergeCell ref="A1:HJ1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 10:50:40&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:26:19&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>